--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_3_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_3_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373837.2914586018</v>
+        <v>370162.556629985</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2821214.707946068</v>
+        <v>2254375.780409608</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19391774.39632785</v>
+        <v>18836215.56344936</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5049165.878689633</v>
+        <v>5285367.848236362</v>
       </c>
     </row>
     <row r="11">
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="T2" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="U2" t="n">
-        <v>50.19740799690857</v>
+        <v>47.73673492061303</v>
       </c>
       <c r="V2" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="S3" t="n">
-        <v>44.21387696367703</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>47.73673492061303</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -829,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.547657929861279</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="K4" t="n">
         <v>14.77440971783335</v>
@@ -859,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>9.626473537507769</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44.21387696367704</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>47.73673492061304</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>44.21387696367704</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>50.19740799690857</v>
+        <v>47.73673492061303</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1035,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
     </row>
     <row r="7">
@@ -1066,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>9.626473537507742</v>
+        <v>1.547657929861279</v>
       </c>
       <c r="H7" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="I7" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="J7" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="K7" t="n">
         <v>14.77440971783335</v>
@@ -1142,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>47.07745778605062</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>44.21387696367704</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1215,16 +1217,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>44.21387696367704</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1269,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>47.73673492061304</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
     </row>
     <row r="10">
@@ -1294,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>24.40088325534112</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="S10" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>16.32206764769463</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1379,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>47.73673492061304</v>
       </c>
       <c r="G11" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="H11" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="I11" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>44.21387696367704</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1455,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>50.19740799690857</v>
+        <v>47.73673492061304</v>
       </c>
       <c r="G12" t="n">
-        <v>44.21387696367703</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1540,19 +1542,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>9.626473537507742</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1570,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>16.32206764769463</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1607,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="D14" t="n">
-        <v>44.21387696367703</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>47.73673492061303</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1692,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1731,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>47.73673492061303</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1777,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>9.626473537507742</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="J16" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="K16" t="n">
         <v>14.77440971783335</v>
@@ -1807,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.547657929861279</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="F17" t="n">
-        <v>47.73673492061304</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G17" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H17" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I17" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1920,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>85.42474164057199</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>47.73673492061304</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2044,19 +2046,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.19701966463789</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S19" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>16.32206764769463</v>
+        <v>5.521978971826058</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2084,10 +2086,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2096,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>41.43010407512111</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.4777635765444</v>
+        <v>99.73835480560622</v>
       </c>
       <c r="V20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2172,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>76.57489292084084</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>110.4625155221328</v>
       </c>
       <c r="I21" t="n">
-        <v>86.50354346547167</v>
+        <v>42.9611995438235</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2220,10 +2222,10 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2242,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>29.90756012708899</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>240.9299003719209</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C23" t="n">
         <v>274.2838073416025</v>
@@ -2324,67 +2326,67 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>241.5891775064833</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.6592771345624158</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2406,13 +2408,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T24" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6571770672012</v>
+        <v>212.4095161455621</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>159.5028127661658</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>5.521978971826058</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="D26" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>99.73835480560622</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>274.2838073416025</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,16 +2642,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>55.37281689811627</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>203.671151418586</v>
+        <v>94.22875100769883</v>
       </c>
     </row>
     <row r="28">
@@ -2767,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2798,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>274.2838073416025</v>
+        <v>151.0570449507884</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2855,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>114.7736570458744</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>143.5062320835493</v>
@@ -2889,7 +2891,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I30" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>8.73836472697606</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2937,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="31">
@@ -2950,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2971,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>11.57657371040602</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,76 +3028,76 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>122.5443985706642</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>141.8508227008771</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>251.4777635765444</v>
+      </c>
+      <c r="V32" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="H32" t="n">
-        <v>241.5891775064833</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
       <c r="Y32" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3114,10 +3116,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>38.15506260347603</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3165,7 +3167,7 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V33" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>249.98934675</v>
@@ -3174,7 +3176,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
-        <v>58.72873530486501</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="34">
@@ -3241,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3281,7 +3283,7 @@
         <v>274.2838073416025</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3326,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3393,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U36" t="n">
-        <v>174.4097407145713</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V36" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.671151418586</v>
+        <v>57.0778042898317</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,70 +3508,70 @@
         <v>274.2838073416025</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>141.8508227008771</v>
+      </c>
+      <c r="S38" t="n">
+        <v>99.73835480560622</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="E38" t="n">
-        <v>241.5891775064833</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>17.76425168466131</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,13 +3638,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>79.71476095348008</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
         <v>204.4616296084783</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>11.02353771150032</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>270.2841956738732</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3749,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>270.2841956738732</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>238.0663195495475</v>
+        <v>99.07907767104388</v>
       </c>
       <c r="Y41" t="n">
-        <v>270.2841956738732</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3867,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>143.9811198060419</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6571770672012</v>
+        <v>9.037615104226628</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3882,10 +3884,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -3940,10 +3942,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>5.52197897182606</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>218.8166234342893</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>44.21387696367704</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4116,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>62.23743232222885</v>
       </c>
       <c r="Y45" t="n">
-        <v>44.21387696367704</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="46">
@@ -4153,13 +4155,13 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4177,10 +4179,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.626473537507769</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="C2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K2" t="n">
-        <v>53.71122655669217</v>
+        <v>57.99081104116254</v>
       </c>
       <c r="L2" t="n">
-        <v>53.71122655669217</v>
+        <v>57.99081104116254</v>
       </c>
       <c r="M2" t="n">
-        <v>101.3987641537553</v>
+        <v>111.6458605091541</v>
       </c>
       <c r="N2" t="n">
-        <v>101.3987641537553</v>
+        <v>159.1140819584346</v>
       </c>
       <c r="O2" t="n">
-        <v>151.0941980706948</v>
+        <v>159.1140819584346</v>
       </c>
       <c r="P2" t="n">
-        <v>200.7896319876343</v>
+        <v>212.7691314264261</v>
       </c>
       <c r="Q2" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R2" t="n">
-        <v>150.0851794655044</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="S2" t="n">
-        <v>150.0851794655044</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="T2" t="n">
-        <v>99.38072694337451</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="U2" t="n">
-        <v>48.67627442124464</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="V2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="W2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="X2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="C3" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D3" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E3" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F3" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G3" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H3" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I3" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J3" t="n">
-        <v>11.40910348623759</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="K3" t="n">
-        <v>11.40910348623759</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="L3" t="n">
-        <v>11.40910348623759</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="M3" t="n">
-        <v>51.70333023681584</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="N3" t="n">
-        <v>101.3987641537553</v>
+        <v>55.82293025457702</v>
       </c>
       <c r="O3" t="n">
-        <v>101.3987641537553</v>
+        <v>109.4779797225685</v>
       </c>
       <c r="P3" t="n">
-        <v>151.0941980706948</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="Q3" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R3" t="n">
-        <v>150.0851794655044</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="S3" t="n">
-        <v>105.4246976840124</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="T3" t="n">
-        <v>105.4246976840124</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="U3" t="n">
-        <v>105.4246976840124</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="V3" t="n">
-        <v>105.4246976840124</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="W3" t="n">
-        <v>105.4246976840124</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="X3" t="n">
-        <v>54.72024516188256</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.93943881938233</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="C4" t="n">
-        <v>18.93943881938233</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="D4" t="n">
-        <v>18.93943881938233</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="E4" t="n">
-        <v>18.93943881938233</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="F4" t="n">
-        <v>18.93943881938233</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="G4" t="n">
-        <v>18.93943881938233</v>
+        <v>183.4928006759458</v>
       </c>
       <c r="H4" t="n">
-        <v>18.93943881938233</v>
+        <v>128.7483363682308</v>
       </c>
       <c r="I4" t="n">
-        <v>18.93943881938233</v>
+        <v>74.00387206051573</v>
       </c>
       <c r="J4" t="n">
-        <v>18.93943881938233</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="K4" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L4" t="n">
-        <v>41.10231156647188</v>
+        <v>41.42228049989023</v>
       </c>
       <c r="M4" t="n">
-        <v>90.79774548341136</v>
+        <v>91.1177144168297</v>
       </c>
       <c r="N4" t="n">
-        <v>140.4931794003508</v>
+        <v>144.7727638848212</v>
       </c>
       <c r="O4" t="n">
-        <v>174.7157053500222</v>
+        <v>178.9952898344926</v>
       </c>
       <c r="P4" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Q4" t="n">
-        <v>130.0720545075893</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="R4" t="n">
-        <v>79.36760198545944</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="S4" t="n">
-        <v>28.66314946332957</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="T4" t="n">
-        <v>18.93943881938233</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="U4" t="n">
-        <v>18.93943881938233</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="V4" t="n">
-        <v>18.93943881938233</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="W4" t="n">
-        <v>18.93943881938233</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="X4" t="n">
-        <v>18.93943881938233</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.93943881938233</v>
+        <v>185.0560915141895</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>156.1291502061423</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="C5" t="n">
-        <v>105.4246976840124</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D5" t="n">
-        <v>54.72024516188256</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E5" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F5" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G5" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H5" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I5" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J5" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K5" t="n">
-        <v>47.68438300469032</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L5" t="n">
-        <v>97.3798169216298</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="M5" t="n">
-        <v>97.3798169216298</v>
+        <v>51.80398302245153</v>
       </c>
       <c r="N5" t="n">
-        <v>147.0752508385693</v>
+        <v>105.459032490443</v>
       </c>
       <c r="O5" t="n">
-        <v>196.7706847555088</v>
+        <v>159.1140819584346</v>
       </c>
       <c r="P5" t="n">
-        <v>196.7706847555088</v>
+        <v>212.7691314264261</v>
       </c>
       <c r="Q5" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R5" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S5" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T5" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U5" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V5" t="n">
-        <v>200.7896319876343</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="W5" t="n">
-        <v>200.7896319876343</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="X5" t="n">
-        <v>200.7896319876343</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="Y5" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>200.7896319876343</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="C6" t="n">
-        <v>200.7896319876343</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="D6" t="n">
-        <v>200.7896319876343</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="E6" t="n">
-        <v>156.1291502061423</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="F6" t="n">
-        <v>105.4246976840124</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="G6" t="n">
-        <v>105.4246976840124</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="H6" t="n">
-        <v>54.72024516188256</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="I6" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J6" t="n">
-        <v>11.40910348623759</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="K6" t="n">
-        <v>11.40910348623759</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="L6" t="n">
-        <v>11.40910348623759</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="M6" t="n">
-        <v>51.70333023681584</v>
+        <v>65.38412188764744</v>
       </c>
       <c r="N6" t="n">
-        <v>51.70333023681584</v>
+        <v>65.38412188764744</v>
       </c>
       <c r="O6" t="n">
-        <v>101.3987641537553</v>
+        <v>119.039171355639</v>
       </c>
       <c r="P6" t="n">
-        <v>151.0941980706948</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="Q6" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R6" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S6" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T6" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U6" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V6" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="W6" t="n">
-        <v>200.7896319876343</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="X6" t="n">
-        <v>200.7896319876343</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="Y6" t="n">
-        <v>200.7896319876343</v>
+        <v>107.2991500431215</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="C7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="D7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="E7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="F7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="G7" t="n">
-        <v>171.052796385772</v>
+        <v>183.4928006759458</v>
       </c>
       <c r="H7" t="n">
-        <v>120.3483438636421</v>
+        <v>128.7483363682308</v>
       </c>
       <c r="I7" t="n">
-        <v>69.6438913415122</v>
+        <v>74.00387206051573</v>
       </c>
       <c r="J7" t="n">
-        <v>18.93943881938233</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="K7" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L7" t="n">
-        <v>41.10231156647188</v>
+        <v>41.42228049989023</v>
       </c>
       <c r="M7" t="n">
-        <v>90.79774548341136</v>
+        <v>91.1177144168297</v>
       </c>
       <c r="N7" t="n">
-        <v>140.4931794003508</v>
+        <v>144.7727638848212</v>
       </c>
       <c r="O7" t="n">
-        <v>174.7157053500222</v>
+        <v>178.9952898344926</v>
       </c>
       <c r="P7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Q7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="R7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="S7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="T7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="U7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="V7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="W7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="X7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Y7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.015792639752686</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="C8" t="n">
-        <v>4.015792639752686</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="D8" t="n">
-        <v>4.015792639752686</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="E8" t="n">
-        <v>4.015792639752686</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="F8" t="n">
-        <v>4.015792639752686</v>
+        <v>169.2350909958742</v>
       </c>
       <c r="G8" t="n">
-        <v>4.015792639752686</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="H8" t="n">
-        <v>4.015792639752686</v>
+        <v>59.74616238044408</v>
       </c>
       <c r="I8" t="n">
-        <v>4.015792639752686</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="J8" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K8" t="n">
-        <v>4.015792639752686</v>
+        <v>57.99081104116254</v>
       </c>
       <c r="L8" t="n">
-        <v>4.015792639752686</v>
+        <v>111.6458605091541</v>
       </c>
       <c r="M8" t="n">
-        <v>53.71122655669217</v>
+        <v>111.6458605091541</v>
       </c>
       <c r="N8" t="n">
-        <v>103.4066604736316</v>
+        <v>111.6458605091541</v>
       </c>
       <c r="O8" t="n">
-        <v>153.1020943905711</v>
+        <v>159.1140819584346</v>
       </c>
       <c r="P8" t="n">
-        <v>196.7706847555088</v>
+        <v>212.7691314264261</v>
       </c>
       <c r="Q8" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R8" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S8" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T8" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U8" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V8" t="n">
-        <v>156.1291502061423</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="W8" t="n">
-        <v>105.4246976840124</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="X8" t="n">
-        <v>54.72024516188256</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.015792639752686</v>
+        <v>216.7880786585516</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="C9" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D9" t="n">
-        <v>156.1291502061423</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E9" t="n">
-        <v>105.4246976840124</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F9" t="n">
-        <v>54.72024516188256</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G9" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H9" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I9" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J9" t="n">
-        <v>4.015792639752686</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="K9" t="n">
-        <v>4.015792639752686</v>
+        <v>65.38412188764744</v>
       </c>
       <c r="L9" t="n">
-        <v>53.71122655669217</v>
+        <v>119.039171355639</v>
       </c>
       <c r="M9" t="n">
-        <v>101.3987641537553</v>
+        <v>119.039171355639</v>
       </c>
       <c r="N9" t="n">
-        <v>101.3987641537553</v>
+        <v>119.039171355639</v>
       </c>
       <c r="O9" t="n">
-        <v>151.0941980706948</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="P9" t="n">
-        <v>200.7896319876343</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="Q9" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R9" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S9" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T9" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U9" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V9" t="n">
-        <v>200.7896319876343</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="W9" t="n">
-        <v>200.7896319876343</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="X9" t="n">
-        <v>200.7896319876343</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="Y9" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>130.0720545075893</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="C10" t="n">
-        <v>130.0720545075893</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D10" t="n">
-        <v>79.36760198545944</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E10" t="n">
-        <v>79.36760198545944</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F10" t="n">
-        <v>79.36760198545944</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G10" t="n">
-        <v>28.66314946332957</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H10" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I10" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J10" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K10" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L10" t="n">
-        <v>41.10231156647188</v>
+        <v>41.42228049989023</v>
       </c>
       <c r="M10" t="n">
-        <v>90.79774548341136</v>
+        <v>91.1177144168297</v>
       </c>
       <c r="N10" t="n">
-        <v>140.4931794003508</v>
+        <v>144.7727638848212</v>
       </c>
       <c r="O10" t="n">
-        <v>174.7157053500222</v>
+        <v>178.9952898344926</v>
       </c>
       <c r="P10" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Q10" t="n">
-        <v>180.7765070297192</v>
+        <v>130.3116272064745</v>
       </c>
       <c r="R10" t="n">
-        <v>180.7765070297192</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="S10" t="n">
-        <v>130.0720545075893</v>
+        <v>20.8226985910444</v>
       </c>
       <c r="T10" t="n">
-        <v>130.0720545075893</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="U10" t="n">
-        <v>130.0720545075893</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="V10" t="n">
-        <v>130.0720545075893</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="W10" t="n">
-        <v>130.0720545075893</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="X10" t="n">
-        <v>130.0720545075893</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="Y10" t="n">
-        <v>130.0720545075893</v>
+        <v>4.335761573171031</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>156.1291502061423</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="C11" t="n">
-        <v>156.1291502061423</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="D11" t="n">
-        <v>156.1291502061423</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="E11" t="n">
-        <v>156.1291502061423</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="F11" t="n">
-        <v>156.1291502061423</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="G11" t="n">
-        <v>105.4246976840124</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="H11" t="n">
-        <v>54.72024516188256</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="I11" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J11" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K11" t="n">
-        <v>47.68438300469032</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L11" t="n">
-        <v>97.3798169216298</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="M11" t="n">
-        <v>147.0752508385693</v>
+        <v>57.99081104116254</v>
       </c>
       <c r="N11" t="n">
-        <v>196.7706847555088</v>
+        <v>105.459032490443</v>
       </c>
       <c r="O11" t="n">
-        <v>196.7706847555088</v>
+        <v>159.1140819584346</v>
       </c>
       <c r="P11" t="n">
-        <v>196.7706847555088</v>
+        <v>212.7691314264261</v>
       </c>
       <c r="Q11" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R11" t="n">
-        <v>156.1291502061423</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S11" t="n">
-        <v>156.1291502061423</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T11" t="n">
-        <v>156.1291502061423</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U11" t="n">
-        <v>156.1291502061423</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V11" t="n">
-        <v>156.1291502061423</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="W11" t="n">
-        <v>156.1291502061423</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="X11" t="n">
-        <v>156.1291502061423</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Y11" t="n">
-        <v>156.1291502061423</v>
+        <v>216.7880786585516</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.0851794655044</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="C12" t="n">
-        <v>150.0851794655044</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="D12" t="n">
-        <v>150.0851794655044</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="E12" t="n">
-        <v>99.38072694337451</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="F12" t="n">
-        <v>48.67627442124464</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="G12" t="n">
-        <v>4.015792639752686</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="H12" t="n">
-        <v>4.015792639752686</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="I12" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J12" t="n">
-        <v>11.40910348623759</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="K12" t="n">
-        <v>51.70333023681584</v>
+        <v>65.38412188764744</v>
       </c>
       <c r="L12" t="n">
-        <v>51.70333023681584</v>
+        <v>109.4779797225685</v>
       </c>
       <c r="M12" t="n">
-        <v>51.70333023681584</v>
+        <v>109.4779797225685</v>
       </c>
       <c r="N12" t="n">
-        <v>101.3987641537553</v>
+        <v>109.4779797225685</v>
       </c>
       <c r="O12" t="n">
-        <v>151.0941980706948</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="P12" t="n">
-        <v>151.0941980706948</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Q12" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R12" t="n">
-        <v>150.0851794655044</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S12" t="n">
-        <v>150.0851794655044</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T12" t="n">
-        <v>150.0851794655044</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U12" t="n">
-        <v>150.0851794655044</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V12" t="n">
-        <v>150.0851794655044</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="W12" t="n">
-        <v>150.0851794655044</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="X12" t="n">
-        <v>150.0851794655044</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Y12" t="n">
-        <v>150.0851794655044</v>
+        <v>216.7880786585516</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="C13" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D13" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E13" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F13" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G13" t="n">
-        <v>171.052796385772</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H13" t="n">
-        <v>120.3483438636421</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I13" t="n">
-        <v>69.6438913415122</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J13" t="n">
-        <v>18.93943881938233</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K13" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L13" t="n">
-        <v>41.10231156647188</v>
+        <v>41.42228049989023</v>
       </c>
       <c r="M13" t="n">
-        <v>90.79774548341136</v>
+        <v>91.1177144168297</v>
       </c>
       <c r="N13" t="n">
-        <v>140.4931794003508</v>
+        <v>144.7727638848212</v>
       </c>
       <c r="O13" t="n">
-        <v>174.7157053500222</v>
+        <v>178.9952898344926</v>
       </c>
       <c r="P13" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Q13" t="n">
-        <v>180.7765070297192</v>
+        <v>130.3116272064745</v>
       </c>
       <c r="R13" t="n">
-        <v>180.7765070297192</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="S13" t="n">
-        <v>180.7765070297192</v>
+        <v>20.8226985910444</v>
       </c>
       <c r="T13" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="U13" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="V13" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="W13" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="X13" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="Y13" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.38072694337451</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="C14" t="n">
-        <v>99.38072694337451</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="D14" t="n">
-        <v>54.72024516188256</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="E14" t="n">
-        <v>54.72024516188256</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F14" t="n">
-        <v>54.72024516188256</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G14" t="n">
-        <v>54.72024516188256</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H14" t="n">
-        <v>54.72024516188256</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I14" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J14" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K14" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L14" t="n">
-        <v>47.68438300469032</v>
+        <v>57.99081104116254</v>
       </c>
       <c r="M14" t="n">
-        <v>97.3798169216298</v>
+        <v>111.6458605091541</v>
       </c>
       <c r="N14" t="n">
-        <v>147.0752508385693</v>
+        <v>165.3009099771456</v>
       </c>
       <c r="O14" t="n">
-        <v>196.7706847555088</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="P14" t="n">
-        <v>196.7706847555088</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Q14" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R14" t="n">
-        <v>150.0851794655044</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S14" t="n">
-        <v>99.38072694337451</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T14" t="n">
-        <v>99.38072694337451</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U14" t="n">
-        <v>99.38072694337451</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V14" t="n">
-        <v>99.38072694337451</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="W14" t="n">
-        <v>99.38072694337451</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="X14" t="n">
-        <v>99.38072694337451</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Y14" t="n">
-        <v>99.38072694337451</v>
+        <v>162.0436143508365</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.38072694337451</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="C15" t="n">
-        <v>99.38072694337451</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D15" t="n">
-        <v>99.38072694337451</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E15" t="n">
-        <v>54.72024516188256</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F15" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G15" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H15" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I15" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J15" t="n">
-        <v>4.015792639752686</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="K15" t="n">
-        <v>53.71122655669217</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="L15" t="n">
-        <v>53.71122655669217</v>
+        <v>65.38412188764744</v>
       </c>
       <c r="M15" t="n">
-        <v>53.71122655669217</v>
+        <v>119.039171355639</v>
       </c>
       <c r="N15" t="n">
-        <v>101.3987641537553</v>
+        <v>119.039171355639</v>
       </c>
       <c r="O15" t="n">
-        <v>151.0941980706948</v>
+        <v>172.6942208236305</v>
       </c>
       <c r="P15" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Q15" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R15" t="n">
-        <v>150.0851794655044</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S15" t="n">
-        <v>150.0851794655044</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="T15" t="n">
-        <v>150.0851794655044</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="U15" t="n">
-        <v>150.0851794655044</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="V15" t="n">
-        <v>150.0851794655044</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="W15" t="n">
-        <v>150.0851794655044</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="X15" t="n">
-        <v>150.0851794655044</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="Y15" t="n">
-        <v>150.0851794655044</v>
+        <v>4.335761573171031</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>180.7765070297192</v>
+        <v>128.7483363682308</v>
       </c>
       <c r="C16" t="n">
-        <v>180.7765070297192</v>
+        <v>128.7483363682308</v>
       </c>
       <c r="D16" t="n">
-        <v>180.7765070297192</v>
+        <v>128.7483363682308</v>
       </c>
       <c r="E16" t="n">
-        <v>180.7765070297192</v>
+        <v>128.7483363682308</v>
       </c>
       <c r="F16" t="n">
-        <v>180.7765070297192</v>
+        <v>128.7483363682308</v>
       </c>
       <c r="G16" t="n">
-        <v>171.052796385772</v>
+        <v>128.7483363682308</v>
       </c>
       <c r="H16" t="n">
-        <v>120.3483438636421</v>
+        <v>128.7483363682308</v>
       </c>
       <c r="I16" t="n">
-        <v>69.6438913415122</v>
+        <v>74.00387206051573</v>
       </c>
       <c r="J16" t="n">
-        <v>18.93943881938233</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="K16" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L16" t="n">
-        <v>41.10231156647188</v>
+        <v>41.42228049989023</v>
       </c>
       <c r="M16" t="n">
-        <v>90.79774548341136</v>
+        <v>91.1177144168297</v>
       </c>
       <c r="N16" t="n">
-        <v>140.4931794003508</v>
+        <v>144.7727638848212</v>
       </c>
       <c r="O16" t="n">
-        <v>174.7157053500222</v>
+        <v>178.9952898344926</v>
       </c>
       <c r="P16" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Q16" t="n">
-        <v>180.7765070297192</v>
+        <v>130.3116272064745</v>
       </c>
       <c r="R16" t="n">
-        <v>180.7765070297192</v>
+        <v>128.7483363682308</v>
       </c>
       <c r="S16" t="n">
-        <v>180.7765070297192</v>
+        <v>128.7483363682308</v>
       </c>
       <c r="T16" t="n">
-        <v>180.7765070297192</v>
+        <v>128.7483363682308</v>
       </c>
       <c r="U16" t="n">
-        <v>180.7765070297192</v>
+        <v>128.7483363682308</v>
       </c>
       <c r="V16" t="n">
-        <v>180.7765070297192</v>
+        <v>128.7483363682308</v>
       </c>
       <c r="W16" t="n">
-        <v>180.7765070297192</v>
+        <v>128.7483363682308</v>
       </c>
       <c r="X16" t="n">
-        <v>180.7765070297192</v>
+        <v>128.7483363682308</v>
       </c>
       <c r="Y16" t="n">
-        <v>180.7765070297192</v>
+        <v>128.7483363682308</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C17" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="D17" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="E17" t="n">
-        <v>216.7880786585516</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="F17" t="n">
-        <v>168.5691544963162</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="G17" t="n">
-        <v>113.8246901886011</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="H17" t="n">
-        <v>59.08022588088608</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I17" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J17" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K17" t="n">
-        <v>57.99081104116254</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L17" t="n">
-        <v>109.4779797225685</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M17" t="n">
-        <v>163.1330291905601</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N17" t="n">
-        <v>216.7880786585516</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O17" t="n">
-        <v>216.7880786585516</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P17" t="n">
-        <v>216.7880786585516</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q17" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R17" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S17" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T17" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U17" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V17" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W17" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X17" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y17" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.335761573171031</v>
+        <v>930.0926782448495</v>
       </c>
       <c r="C18" t="n">
-        <v>4.335761573171031</v>
+        <v>757.3395631666667</v>
       </c>
       <c r="D18" t="n">
-        <v>4.335761573171031</v>
+        <v>609.7512565256106</v>
       </c>
       <c r="E18" t="n">
-        <v>4.335761573171031</v>
+        <v>452.1417275284654</v>
       </c>
       <c r="F18" t="n">
-        <v>4.335761573171031</v>
+        <v>307.1859375450822</v>
       </c>
       <c r="G18" t="n">
-        <v>4.335761573171031</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H18" t="n">
-        <v>4.335761573171031</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I18" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J18" t="n">
-        <v>11.72907241965593</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K18" t="n">
-        <v>11.72907241965593</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L18" t="n">
-        <v>11.72907241965593</v>
+        <v>87.60320201771924</v>
       </c>
       <c r="M18" t="n">
-        <v>11.72907241965593</v>
+        <v>359.1441712859057</v>
       </c>
       <c r="N18" t="n">
-        <v>55.82293025457702</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O18" t="n">
-        <v>109.4779797225685</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P18" t="n">
-        <v>163.1330291905601</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q18" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R18" t="n">
-        <v>168.5691544963162</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S18" t="n">
-        <v>113.8246901886011</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T18" t="n">
-        <v>59.08022588088608</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U18" t="n">
-        <v>4.335761573171031</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V18" t="n">
-        <v>4.335761573171031</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W18" t="n">
-        <v>4.335761573171031</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X18" t="n">
-        <v>4.335761573171031</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.335761573171031</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L19" t="n">
-        <v>41.42228049989023</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M19" t="n">
-        <v>91.1177144168297</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N19" t="n">
-        <v>144.7727638848212</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O19" t="n">
-        <v>178.9952898344926</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P19" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3116272064745</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R19" t="n">
-        <v>75.56716289875945</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="S19" t="n">
-        <v>20.8226985910444</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="T19" t="n">
-        <v>20.8226985910444</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="U19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>21.9427045873282</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="C20" t="n">
-        <v>21.9427045873282</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="D20" t="n">
-        <v>21.9427045873282</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="E20" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F20" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G20" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="H20" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="I20" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="J20" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="K20" t="n">
         <v>143.241092649432</v>
@@ -5762,10 +5764,10 @@
         <v>586.1689795623909</v>
       </c>
       <c r="N20" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O20" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P20" t="n">
         <v>1093.116282134284</v>
@@ -5774,28 +5776,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R20" t="n">
-        <v>1055.28663939154</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S20" t="n">
-        <v>1055.28663939154</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T20" t="n">
-        <v>830.0693492941459</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U20" t="n">
-        <v>576.0514062875353</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="V20" t="n">
-        <v>298.9970554374318</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="W20" t="n">
-        <v>21.9427045873282</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="X20" t="n">
-        <v>21.9427045873282</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="Y20" t="n">
-        <v>21.9427045873282</v>
+        <v>853.1057571376389</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>298.2466964140406</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="C21" t="n">
-        <v>298.2466964140406</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="D21" t="n">
-        <v>298.2466964140406</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="E21" t="n">
-        <v>298.2466964140406</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="F21" t="n">
-        <v>298.2466964140406</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="G21" t="n">
-        <v>220.8983197263226</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="H21" t="n">
-        <v>109.3200212191178</v>
+        <v>65.33785564169537</v>
       </c>
       <c r="I21" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J21" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K21" t="n">
-        <v>168.577974491964</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L21" t="n">
-        <v>416.655578933882</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="M21" t="n">
-        <v>557.7146411209028</v>
+        <v>293.4836738555147</v>
       </c>
       <c r="N21" t="n">
-        <v>829.2556103890893</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O21" t="n">
-        <v>1097.13522936641</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P21" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q21" t="n">
         <v>1097.13522936641</v>
@@ -5856,25 +5858,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S21" t="n">
-        <v>926.4669324920217</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T21" t="n">
-        <v>926.4669324920217</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U21" t="n">
-        <v>699.5404910100002</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V21" t="n">
-        <v>465.2892475356011</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W21" t="n">
-        <v>465.2892475356011</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="X21" t="n">
-        <v>465.2892475356011</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="Y21" t="n">
-        <v>465.2892475356011</v>
+        <v>176.9161541489002</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="C22" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="D22" t="n">
-        <v>52.15236128135749</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="E22" t="n">
-        <v>52.15236128135749</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="F22" t="n">
-        <v>52.15236128135749</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="G22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="I22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="J22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="K22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="L22" t="n">
-        <v>59.02922351404739</v>
+        <v>953.5014183521106</v>
       </c>
       <c r="M22" t="n">
-        <v>108.7246574309869</v>
+        <v>1003.19685226905</v>
       </c>
       <c r="N22" t="n">
-        <v>162.3797068989784</v>
+        <v>1056.851901737042</v>
       </c>
       <c r="O22" t="n">
-        <v>196.6022328486497</v>
+        <v>1091.074427686713</v>
       </c>
       <c r="P22" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R22" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S22" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T22" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U22" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V22" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W22" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X22" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y22" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>853.7716936371969</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C23" t="n">
-        <v>576.7173427870933</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D23" t="n">
-        <v>576.7173427870933</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E23" t="n">
-        <v>299.6629919369898</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F23" t="n">
-        <v>299.6629919369898</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G23" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H23" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I23" t="n">
-        <v>22.60864108688619</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="J23" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="K23" t="n">
         <v>143.241092649432</v>
@@ -6026,13 +6028,13 @@
         <v>1097.13522936641</v>
       </c>
       <c r="W23" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="X23" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="Y23" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875353</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>21.9427045873282</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="C24" t="n">
-        <v>21.9427045873282</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="D24" t="n">
-        <v>21.9427045873282</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="E24" t="n">
-        <v>21.9427045873282</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="F24" t="n">
-        <v>21.9427045873282</v>
+        <v>270.9181851198283</v>
       </c>
       <c r="G24" t="n">
-        <v>21.9427045873282</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H24" t="n">
         <v>21.9427045873282</v>
@@ -6069,49 +6071,49 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K24" t="n">
-        <v>161.1846636454791</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L24" t="n">
-        <v>409.2622680873972</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M24" t="n">
-        <v>630.6851405540922</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N24" t="n">
-        <v>630.6851405540922</v>
+        <v>748.0774423727912</v>
       </c>
       <c r="O24" t="n">
-        <v>898.564759531413</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="P24" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q24" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R24" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S24" t="n">
-        <v>1097.13522936641</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T24" t="n">
-        <v>896.7488334994719</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="U24" t="n">
-        <v>669.8223920174504</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="V24" t="n">
-        <v>435.5711485430513</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="W24" t="n">
-        <v>183.0566568763846</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="X24" t="n">
-        <v>21.9427045873282</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="Y24" t="n">
-        <v>21.9427045873282</v>
+        <v>415.8739751032115</v>
       </c>
     </row>
     <row r="25">
@@ -6169,28 +6171,28 @@
         <v>202.6630345283467</v>
       </c>
       <c r="R25" t="n">
-        <v>27.52046112452624</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S25" t="n">
-        <v>27.52046112452624</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>576.0514062875353</v>
+        <v>399.7428683723875</v>
       </c>
       <c r="C26" t="n">
-        <v>298.9970554374318</v>
+        <v>399.7428683723875</v>
       </c>
       <c r="D26" t="n">
-        <v>21.9427045873282</v>
+        <v>399.7428683723875</v>
       </c>
       <c r="E26" t="n">
-        <v>21.9427045873282</v>
+        <v>399.7428683723875</v>
       </c>
       <c r="F26" t="n">
-        <v>21.9427045873282</v>
+        <v>399.7428683723875</v>
       </c>
       <c r="G26" t="n">
-        <v>21.9427045873282</v>
+        <v>122.688517522284</v>
       </c>
       <c r="H26" t="n">
         <v>21.9427045873282</v>
@@ -6248,28 +6250,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R26" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S26" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T26" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U26" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="V26" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="W26" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="X26" t="n">
-        <v>820.0808785163064</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="Y26" t="n">
-        <v>820.0808785163064</v>
+        <v>399.7428683723875</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>517.8373438740774</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C27" t="n">
-        <v>517.8373438740774</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D27" t="n">
-        <v>517.8373438740774</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E27" t="n">
-        <v>360.2278148769321</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F27" t="n">
-        <v>215.272024893549</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G27" t="n">
-        <v>77.87484286825372</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H27" t="n">
         <v>21.9427045873282</v>
@@ -6306,49 +6308,49 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K27" t="n">
-        <v>21.9427045873282</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L27" t="n">
-        <v>270.0203090292462</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M27" t="n">
-        <v>541.5612782974326</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="N27" t="n">
-        <v>813.1022475656191</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O27" t="n">
-        <v>1080.98186654294</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P27" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q27" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R27" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S27" t="n">
-        <v>1097.13522936641</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T27" t="n">
-        <v>1097.13522936641</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="U27" t="n">
-        <v>1097.13522936641</v>
+        <v>603.8889963018272</v>
       </c>
       <c r="V27" t="n">
-        <v>1097.13522936641</v>
+        <v>369.6377528274281</v>
       </c>
       <c r="W27" t="n">
-        <v>1097.13522936641</v>
+        <v>117.1232611607614</v>
       </c>
       <c r="X27" t="n">
-        <v>890.6083307719874</v>
+        <v>117.1232611607614</v>
       </c>
       <c r="Y27" t="n">
-        <v>684.8798949956379</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="28">
@@ -6415,13 +6417,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X28" t="n">
         <v>21.9427045873282</v>
@@ -6437,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>820.0808785163064</v>
+        <v>174.5255782749932</v>
       </c>
       <c r="C29" t="n">
-        <v>820.0808785163064</v>
+        <v>174.5255782749932</v>
       </c>
       <c r="D29" t="n">
-        <v>820.0808785163064</v>
+        <v>174.5255782749932</v>
       </c>
       <c r="E29" t="n">
-        <v>576.0514062875353</v>
+        <v>174.5255782749932</v>
       </c>
       <c r="F29" t="n">
-        <v>298.9970554374318</v>
+        <v>174.5255782749932</v>
       </c>
       <c r="G29" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="H29" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="I29" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="J29" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="K29" t="n">
         <v>143.241092649432</v>
@@ -6485,28 +6487,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R29" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S29" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T29" t="n">
-        <v>1097.13522936641</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="U29" t="n">
-        <v>1097.13522936641</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="V29" t="n">
-        <v>820.0808785163064</v>
+        <v>451.5799291250968</v>
       </c>
       <c r="W29" t="n">
-        <v>820.0808785163064</v>
+        <v>451.5799291250968</v>
       </c>
       <c r="X29" t="n">
-        <v>820.0808785163064</v>
+        <v>174.5255782749932</v>
       </c>
       <c r="Y29" t="n">
-        <v>820.0808785163064</v>
+        <v>174.5255782749932</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>981.2022424513852</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="C30" t="n">
-        <v>808.4491273732024</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="D30" t="n">
-        <v>660.8608207321463</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="E30" t="n">
-        <v>503.251291735001</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2955017516178</v>
+        <v>270.9181851198283</v>
       </c>
       <c r="G30" t="n">
-        <v>220.8983197263226</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H30" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I30" t="n">
         <v>21.9427045873282</v>
@@ -6543,19 +6545,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K30" t="n">
-        <v>38.09606741079833</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L30" t="n">
-        <v>286.1736718527163</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M30" t="n">
-        <v>557.7146411209028</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="N30" t="n">
-        <v>829.2556103890893</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O30" t="n">
-        <v>1097.13522936641</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P30" t="n">
         <v>1097.13522936641</v>
@@ -6564,28 +6566,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R30" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S30" t="n">
-        <v>1097.13522936641</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T30" t="n">
-        <v>1097.13522936641</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="U30" t="n">
-        <v>1097.13522936641</v>
+        <v>621.602410879561</v>
       </c>
       <c r="V30" t="n">
-        <v>1097.13522936641</v>
+        <v>621.602410879561</v>
       </c>
       <c r="W30" t="n">
-        <v>1097.13522936641</v>
+        <v>621.602410879561</v>
       </c>
       <c r="X30" t="n">
-        <v>1097.13522936641</v>
+        <v>621.602410879561</v>
       </c>
       <c r="Y30" t="n">
-        <v>1097.13522936641</v>
+        <v>415.8739751032115</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C31" t="n">
-        <v>33.63621338571812</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D31" t="n">
-        <v>33.63621338571812</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E31" t="n">
-        <v>33.63621338571812</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F31" t="n">
-        <v>33.63621338571812</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G31" t="n">
-        <v>33.63621338571812</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H31" t="n">
-        <v>33.63621338571812</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I31" t="n">
-        <v>33.63621338571812</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J31" t="n">
         <v>21.9427045873282</v>
@@ -6661,10 +6663,10 @@
         <v>202.6630345283467</v>
       </c>
       <c r="X31" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y31" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>543.0265276662028</v>
+        <v>145.7249253657769</v>
       </c>
       <c r="C32" t="n">
-        <v>543.0265276662028</v>
+        <v>145.7249253657769</v>
       </c>
       <c r="D32" t="n">
-        <v>543.0265276662028</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="E32" t="n">
-        <v>543.0265276662028</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="F32" t="n">
-        <v>543.0265276662028</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="G32" t="n">
-        <v>265.9721768160992</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="H32" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="I32" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="J32" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="K32" t="n">
         <v>143.241092649432</v>
@@ -6722,28 +6724,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R32" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S32" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T32" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U32" t="n">
-        <v>1097.13522936641</v>
+        <v>699.833627065984</v>
       </c>
       <c r="V32" t="n">
-        <v>1097.13522936641</v>
+        <v>422.7792762158805</v>
       </c>
       <c r="W32" t="n">
-        <v>1097.13522936641</v>
+        <v>422.7792762158805</v>
       </c>
       <c r="X32" t="n">
-        <v>1097.13522936641</v>
+        <v>145.7249253657769</v>
       </c>
       <c r="Y32" t="n">
-        <v>820.0808785163064</v>
+        <v>145.7249253657769</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>21.9427045873282</v>
+        <v>205.4389618469498</v>
       </c>
       <c r="C33" t="n">
-        <v>21.9427045873282</v>
+        <v>205.4389618469498</v>
       </c>
       <c r="D33" t="n">
-        <v>21.9427045873282</v>
+        <v>205.4389618469498</v>
       </c>
       <c r="E33" t="n">
-        <v>21.9427045873282</v>
+        <v>166.8984945707113</v>
       </c>
       <c r="F33" t="n">
         <v>21.9427045873282</v>
@@ -6786,43 +6788,43 @@
         <v>277.4136198757311</v>
       </c>
       <c r="M33" t="n">
-        <v>548.9545891439176</v>
+        <v>277.9660032696079</v>
       </c>
       <c r="N33" t="n">
-        <v>820.4955584121041</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O33" t="n">
-        <v>1088.375177389425</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P33" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q33" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R33" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S33" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T33" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U33" t="n">
-        <v>774.5572931762155</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V33" t="n">
-        <v>540.3060497018164</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="W33" t="n">
-        <v>287.7915580351497</v>
+        <v>617.6942962177218</v>
       </c>
       <c r="X33" t="n">
-        <v>81.2646594407272</v>
+        <v>411.1673976232993</v>
       </c>
       <c r="Y33" t="n">
-        <v>21.9427045873282</v>
+        <v>205.4389618469498</v>
       </c>
     </row>
     <row r="34">
@@ -6889,10 +6891,10 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U34" t="n">
-        <v>1097.13522936641</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="V34" t="n">
-        <v>1097.13522936641</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="W34" t="n">
         <v>916.4148994253914</v>
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>853.1057571376389</v>
+      </c>
+      <c r="C35" t="n">
+        <v>853.1057571376389</v>
+      </c>
+      <c r="D35" t="n">
+        <v>853.1057571376389</v>
+      </c>
+      <c r="E35" t="n">
+        <v>853.1057571376389</v>
+      </c>
+      <c r="F35" t="n">
         <v>576.0514062875353</v>
       </c>
-      <c r="C35" t="n">
-        <v>576.0514062875353</v>
-      </c>
-      <c r="D35" t="n">
-        <v>576.0514062875353</v>
-      </c>
-      <c r="E35" t="n">
-        <v>576.0514062875353</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>298.9970554374318</v>
-      </c>
-      <c r="G35" t="n">
-        <v>21.9427045873282</v>
       </c>
       <c r="H35" t="n">
         <v>21.9427045873282</v>
@@ -6974,10 +6976,10 @@
         <v>1097.13522936641</v>
       </c>
       <c r="W35" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="X35" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="Y35" t="n">
         <v>853.1057571376389</v>
@@ -7014,22 +7016,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J36" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K36" t="n">
-        <v>29.3360154338131</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L36" t="n">
-        <v>277.4136198757311</v>
+        <v>277.9660032696079</v>
       </c>
       <c r="M36" t="n">
-        <v>548.9545891439176</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="N36" t="n">
-        <v>748.0774423727912</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O36" t="n">
-        <v>1015.957061350112</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P36" t="n">
         <v>1015.957061350112</v>
@@ -7041,25 +7043,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S36" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T36" t="n">
-        <v>1097.13522936641</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="U36" t="n">
-        <v>920.9637740991661</v>
+        <v>499.1540951430621</v>
       </c>
       <c r="V36" t="n">
-        <v>686.7125306247669</v>
+        <v>499.1540951430621</v>
       </c>
       <c r="W36" t="n">
-        <v>434.1980389581003</v>
+        <v>246.6396034763954</v>
       </c>
       <c r="X36" t="n">
-        <v>227.6711403636777</v>
+        <v>246.6396034763954</v>
       </c>
       <c r="Y36" t="n">
-        <v>21.9427045873282</v>
+        <v>188.9852557088886</v>
       </c>
     </row>
     <row r="37">
@@ -7126,10 +7128,10 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W37" t="n">
         <v>21.9427045873282</v>
@@ -7148,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>820.0808785163064</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C38" t="n">
-        <v>543.0265276662028</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="D38" t="n">
-        <v>265.9721768160992</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="E38" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="F38" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="G38" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="H38" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="I38" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="J38" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="K38" t="n">
         <v>143.241092649432</v>
@@ -7196,28 +7198,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R38" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S38" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="T38" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="U38" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="V38" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="W38" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="X38" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="Y38" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875353</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>517.8373438740774</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C39" t="n">
-        <v>345.0842287958946</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D39" t="n">
-        <v>197.4959221548385</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E39" t="n">
-        <v>39.88639315769316</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F39" t="n">
         <v>21.9427045873282</v>
@@ -7263,10 +7265,10 @@
         <v>548.9545891439176</v>
       </c>
       <c r="N39" t="n">
-        <v>748.0774423727912</v>
+        <v>817.386591515115</v>
       </c>
       <c r="O39" t="n">
-        <v>1015.957061350112</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P39" t="n">
         <v>1015.957061350112</v>
@@ -7275,28 +7277,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R39" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S39" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T39" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U39" t="n">
-        <v>1097.13522936641</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V39" t="n">
-        <v>1097.13522936641</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W39" t="n">
-        <v>1097.13522936641</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X39" t="n">
-        <v>890.6083307719874</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y39" t="n">
-        <v>684.8798949956379</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.4148994253914</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C40" t="n">
-        <v>916.4148994253914</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="D40" t="n">
-        <v>916.4148994253914</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="E40" t="n">
-        <v>916.4148994253914</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="F40" t="n">
-        <v>916.4148994253914</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="G40" t="n">
-        <v>916.4148994253914</v>
+        <v>927.5497860026644</v>
       </c>
       <c r="H40" t="n">
-        <v>916.4148994253914</v>
+        <v>927.5497860026644</v>
       </c>
       <c r="I40" t="n">
         <v>916.4148994253914</v>
@@ -7363,19 +7365,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U40" t="n">
-        <v>916.4148994253914</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V40" t="n">
-        <v>916.4148994253914</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W40" t="n">
-        <v>916.4148994253914</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X40" t="n">
-        <v>916.4148994253914</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.4148994253914</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>294.6370747184282</v>
+        <v>299.6629919369897</v>
       </c>
       <c r="C41" t="n">
-        <v>294.6370747184282</v>
+        <v>299.6629919369897</v>
       </c>
       <c r="D41" t="n">
-        <v>294.6370747184282</v>
+        <v>299.6629919369897</v>
       </c>
       <c r="E41" t="n">
-        <v>294.6370747184282</v>
+        <v>299.6629919369897</v>
       </c>
       <c r="F41" t="n">
-        <v>21.62273565390985</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="G41" t="n">
-        <v>21.62273565390985</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H41" t="n">
-        <v>21.62273565390985</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I41" t="n">
-        <v>21.62273565390985</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J41" t="n">
-        <v>21.62273565390985</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="K41" t="n">
-        <v>142.9211237160136</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L41" t="n">
-        <v>345.3715781673772</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M41" t="n">
-        <v>585.8490106289726</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N41" t="n">
-        <v>799.021966629443</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O41" t="n">
-        <v>968.9915346827825</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P41" t="n">
-        <v>1077.117835463367</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q41" t="n">
-        <v>1081.136782695493</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R41" t="n">
-        <v>1081.136782695493</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S41" t="n">
-        <v>1081.136782695493</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T41" t="n">
-        <v>1081.136782695493</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U41" t="n">
-        <v>1081.136782695493</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="V41" t="n">
-        <v>1081.136782695493</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="W41" t="n">
-        <v>1081.136782695493</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="X41" t="n">
-        <v>840.6657528474649</v>
+        <v>853.7716936371968</v>
       </c>
       <c r="Y41" t="n">
-        <v>567.6514137829465</v>
+        <v>576.7173427870932</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C42" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D42" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E42" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F42" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G42" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H42" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I42" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J42" t="n">
-        <v>29.01604650039475</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K42" t="n">
-        <v>168.2580055585457</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L42" t="n">
-        <v>416.3356100004637</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M42" t="n">
-        <v>614.9849591433613</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N42" t="n">
-        <v>614.9849591433613</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O42" t="n">
-        <v>882.5663128604957</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P42" t="n">
-        <v>1081.136782695493</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q42" t="n">
-        <v>1081.136782695493</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R42" t="n">
-        <v>1081.136782695493</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S42" t="n">
-        <v>935.7013081439352</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T42" t="n">
-        <v>735.3149122769971</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U42" t="n">
-        <v>508.3884707949757</v>
+        <v>1088.006325220726</v>
       </c>
       <c r="V42" t="n">
-        <v>274.1372273205766</v>
+        <v>853.7550817463274</v>
       </c>
       <c r="W42" t="n">
-        <v>21.62273565390985</v>
+        <v>601.2405900796607</v>
       </c>
       <c r="X42" t="n">
-        <v>21.62273565390985</v>
+        <v>394.7136914852382</v>
       </c>
       <c r="Y42" t="n">
-        <v>21.62273565390985</v>
+        <v>188.9852557088886</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L43" t="n">
-        <v>58.70925458062905</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M43" t="n">
-        <v>108.4046884975685</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N43" t="n">
-        <v>162.05973796556</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O43" t="n">
-        <v>196.2822639152314</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P43" t="n">
-        <v>202.3430655949284</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.3430655949284</v>
+        <v>197.0852779911487</v>
       </c>
       <c r="R43" t="n">
-        <v>202.3430655949284</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="S43" t="n">
-        <v>202.3430655949284</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T43" t="n">
-        <v>202.3430655949284</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U43" t="n">
-        <v>202.3430655949284</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V43" t="n">
-        <v>202.3430655949284</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W43" t="n">
-        <v>202.3430655949284</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4.015792639752686</v>
+        <v>243.6355334447542</v>
       </c>
       <c r="C44" t="n">
-        <v>4.015792639752686</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="D44" t="n">
-        <v>4.015792639752686</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="E44" t="n">
-        <v>4.015792639752686</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="F44" t="n">
-        <v>4.015792639752686</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="G44" t="n">
-        <v>4.015792639752686</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H44" t="n">
-        <v>4.015792639752686</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I44" t="n">
-        <v>4.015792639752686</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J44" t="n">
-        <v>4.015792639752686</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="K44" t="n">
-        <v>4.015792639752686</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L44" t="n">
-        <v>53.71122655669217</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M44" t="n">
-        <v>103.4066604736316</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N44" t="n">
-        <v>153.1020943905711</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O44" t="n">
-        <v>200.7896319876343</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P44" t="n">
-        <v>200.7896319876343</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q44" t="n">
-        <v>200.7896319876343</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R44" t="n">
-        <v>200.7896319876343</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S44" t="n">
-        <v>200.7896319876343</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T44" t="n">
-        <v>200.7896319876343</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U44" t="n">
-        <v>200.7896319876343</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="V44" t="n">
-        <v>156.1291502061423</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="W44" t="n">
-        <v>105.4246976840124</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="X44" t="n">
-        <v>54.72024516188256</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="Y44" t="n">
-        <v>4.015792639752686</v>
+        <v>520.6898842948577</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>105.4246976840124</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="C45" t="n">
-        <v>54.72024516188256</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="D45" t="n">
-        <v>4.015792639752686</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="E45" t="n">
-        <v>4.015792639752686</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="F45" t="n">
-        <v>4.015792639752686</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="G45" t="n">
-        <v>4.015792639752686</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="H45" t="n">
-        <v>4.015792639752686</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I45" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J45" t="n">
-        <v>4.015792639752686</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K45" t="n">
-        <v>4.015792639752686</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L45" t="n">
-        <v>51.70333023681584</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M45" t="n">
-        <v>101.3987641537553</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N45" t="n">
-        <v>151.0941980706948</v>
+        <v>959.7375174702549</v>
       </c>
       <c r="O45" t="n">
-        <v>200.7896319876343</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P45" t="n">
-        <v>200.7896319876343</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q45" t="n">
-        <v>200.7896319876343</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R45" t="n">
-        <v>200.7896319876343</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S45" t="n">
-        <v>200.7896319876343</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T45" t="n">
-        <v>200.7896319876343</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="U45" t="n">
-        <v>200.7896319876343</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="V45" t="n">
-        <v>200.7896319876343</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="W45" t="n">
-        <v>200.7896319876343</v>
+        <v>377.9145502502439</v>
       </c>
       <c r="X45" t="n">
-        <v>200.7896319876343</v>
+        <v>315.0484569954673</v>
       </c>
       <c r="Y45" t="n">
-        <v>156.1291502061423</v>
+        <v>109.3200212191178</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>120.3483438636421</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C46" t="n">
-        <v>120.3483438636421</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D46" t="n">
-        <v>120.3483438636421</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E46" t="n">
-        <v>120.3483438636421</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F46" t="n">
-        <v>120.3483438636421</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G46" t="n">
-        <v>120.3483438636421</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H46" t="n">
-        <v>120.3483438636421</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I46" t="n">
-        <v>69.6438913415122</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J46" t="n">
-        <v>18.93943881938233</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L46" t="n">
-        <v>41.10231156647188</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M46" t="n">
-        <v>90.79774548341136</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N46" t="n">
-        <v>140.4931794003508</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O46" t="n">
-        <v>174.7157053500222</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P46" t="n">
-        <v>180.7765070297192</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.0720545075893</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R46" t="n">
-        <v>120.3483438636421</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S46" t="n">
-        <v>120.3483438636421</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T46" t="n">
-        <v>120.3483438636421</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U46" t="n">
-        <v>120.3483438636421</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V46" t="n">
-        <v>120.3483438636421</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W46" t="n">
-        <v>120.3483438636421</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X46" t="n">
-        <v>120.3483438636421</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.3483438636421</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7981,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K2" t="n">
-        <v>264.7850127657646</v>
+        <v>268.7846244334939</v>
       </c>
       <c r="L2" t="n">
         <v>229.8722545957376</v>
       </c>
       <c r="M2" t="n">
-        <v>272.7568072926143</v>
+        <v>278.7845970612288</v>
       </c>
       <c r="N2" t="n">
-        <v>223.6777370066762</v>
+        <v>271.6254354402928</v>
       </c>
       <c r="O2" t="n">
-        <v>274.5431641330531</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P2" t="n">
-        <v>275.6495788582964</v>
+        <v>279.6491905260257</v>
       </c>
       <c r="Q2" t="n">
-        <v>216.7480476275882</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R2" t="n">
         <v>68.34507666790174</v>
@@ -8064,19 +8066,19 @@
         <v>135.0905202853774</v>
       </c>
       <c r="M3" t="n">
-        <v>179.2819222159661</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N3" t="n">
-        <v>178.2555772781585</v>
+        <v>172.5974196195541</v>
       </c>
       <c r="O3" t="n">
-        <v>139.0313383333333</v>
+        <v>193.2283579979712</v>
       </c>
       <c r="P3" t="n">
-        <v>180.8224552258806</v>
+        <v>184.8220668936099</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.6796377307795</v>
+        <v>190.6792493985089</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8146,7 +8148,7 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N4" t="n">
-        <v>174.6908138505109</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O4" t="n">
         <v>169.5633330205178</v>
@@ -8216,22 +8218,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K5" t="n">
-        <v>258.6972920061668</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L5" t="n">
-        <v>280.0696625926461</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M5" t="n">
-        <v>224.5875773965909</v>
+        <v>272.5352758302076</v>
       </c>
       <c r="N5" t="n">
-        <v>273.8751450035847</v>
+        <v>277.8747566713141</v>
       </c>
       <c r="O5" t="n">
-        <v>274.5431641330531</v>
+        <v>278.5427758007825</v>
       </c>
       <c r="P5" t="n">
-        <v>225.4521708613878</v>
+        <v>279.6491905260257</v>
       </c>
       <c r="Q5" t="n">
         <v>220.8075902863009</v>
@@ -8301,19 +8303,19 @@
         <v>135.0905202853774</v>
       </c>
       <c r="M6" t="n">
-        <v>179.2819222159661</v>
+        <v>192.7777027386057</v>
       </c>
       <c r="N6" t="n">
         <v>128.05816928125</v>
       </c>
       <c r="O6" t="n">
-        <v>189.2287463302419</v>
+        <v>193.2283579979712</v>
       </c>
       <c r="P6" t="n">
-        <v>180.8224552258806</v>
+        <v>175.1642975672762</v>
       </c>
       <c r="Q6" t="n">
-        <v>186.6796377307795</v>
+        <v>190.6792493985089</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8383,7 +8385,7 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N7" t="n">
-        <v>174.6908138505109</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O7" t="n">
         <v>169.5633330205178</v>
@@ -8453,22 +8455,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K8" t="n">
-        <v>214.587604768856</v>
+        <v>268.7846244334939</v>
       </c>
       <c r="L8" t="n">
-        <v>229.8722545957376</v>
+        <v>284.0692742603754</v>
       </c>
       <c r="M8" t="n">
-        <v>274.7849853934995</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N8" t="n">
-        <v>273.8751450035847</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O8" t="n">
-        <v>274.5431641330531</v>
+        <v>272.2934545697612</v>
       </c>
       <c r="P8" t="n">
-        <v>269.5618580986986</v>
+        <v>279.6491905260257</v>
       </c>
       <c r="Q8" t="n">
         <v>220.8075902863009</v>
@@ -8529,28 +8531,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K9" t="n">
-        <v>134.395403</v>
+        <v>188.5924226646379</v>
       </c>
       <c r="L9" t="n">
-        <v>185.2879282822859</v>
+        <v>189.2875399500152</v>
       </c>
       <c r="M9" t="n">
-        <v>186.7499129699913</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N9" t="n">
         <v>128.05816928125</v>
       </c>
       <c r="O9" t="n">
-        <v>189.2287463302419</v>
+        <v>183.5705886716374</v>
       </c>
       <c r="P9" t="n">
-        <v>180.8224552258806</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.482229733871</v>
+        <v>190.6792493985089</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8620,7 +8622,7 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N10" t="n">
-        <v>174.6908138505109</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O10" t="n">
         <v>169.5633330205178</v>
@@ -8690,22 +8692,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K11" t="n">
-        <v>258.6972920061668</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L11" t="n">
-        <v>280.0696625926461</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M11" t="n">
-        <v>274.7849853934995</v>
+        <v>278.7845970612288</v>
       </c>
       <c r="N11" t="n">
-        <v>273.8751450035847</v>
+        <v>271.6254354402928</v>
       </c>
       <c r="O11" t="n">
-        <v>224.3457561361446</v>
+        <v>278.5427758007825</v>
       </c>
       <c r="P11" t="n">
-        <v>225.4521708613878</v>
+        <v>279.6491905260257</v>
       </c>
       <c r="Q11" t="n">
         <v>220.8075902863009</v>
@@ -8769,25 +8771,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
-        <v>175.0966421419982</v>
+        <v>188.5924226646379</v>
       </c>
       <c r="L12" t="n">
-        <v>135.0905202853774</v>
+        <v>179.6297706236815</v>
       </c>
       <c r="M12" t="n">
         <v>138.5806830739679</v>
       </c>
       <c r="N12" t="n">
-        <v>178.2555772781585</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O12" t="n">
-        <v>189.2287463302419</v>
+        <v>193.2283579979712</v>
       </c>
       <c r="P12" t="n">
-        <v>130.625047228972</v>
+        <v>184.8220668936099</v>
       </c>
       <c r="Q12" t="n">
-        <v>186.6796377307795</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8857,7 +8859,7 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N13" t="n">
-        <v>174.6908138505109</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O13" t="n">
         <v>169.5633330205178</v>
@@ -8930,22 +8932,22 @@
         <v>214.587604768856</v>
       </c>
       <c r="L14" t="n">
-        <v>273.9819418330483</v>
+        <v>284.0692742603754</v>
       </c>
       <c r="M14" t="n">
-        <v>274.7849853934995</v>
+        <v>278.7845970612288</v>
       </c>
       <c r="N14" t="n">
-        <v>273.8751450035847</v>
+        <v>277.8747566713141</v>
       </c>
       <c r="O14" t="n">
-        <v>274.5431641330531</v>
+        <v>276.3529972284738</v>
       </c>
       <c r="P14" t="n">
         <v>225.4521708613878</v>
       </c>
       <c r="Q14" t="n">
-        <v>220.8075902863009</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9003,25 +9005,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
-        <v>184.5928109969086</v>
+        <v>134.395403</v>
       </c>
       <c r="L15" t="n">
-        <v>135.0905202853774</v>
+        <v>189.2875399500152</v>
       </c>
       <c r="M15" t="n">
-        <v>138.5806830739679</v>
+        <v>192.7777027386057</v>
       </c>
       <c r="N15" t="n">
-        <v>176.2273991772734</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O15" t="n">
-        <v>189.2287463302419</v>
+        <v>193.2283579979712</v>
       </c>
       <c r="P15" t="n">
-        <v>180.8224552258806</v>
+        <v>175.1642975672762</v>
       </c>
       <c r="Q15" t="n">
         <v>136.482229733871</v>
@@ -9094,7 +9096,7 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N16" t="n">
-        <v>174.6908138505109</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O16" t="n">
         <v>169.5633330205178</v>
@@ -9164,25 +9166,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K17" t="n">
-        <v>268.7846244334939</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L17" t="n">
-        <v>281.8794956880669</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M17" t="n">
-        <v>278.7845970612288</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N17" t="n">
-        <v>277.8747566713141</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O17" t="n">
-        <v>224.3457561361446</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P17" t="n">
-        <v>225.4521708613878</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q17" t="n">
-        <v>216.7480476275882</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R17" t="n">
         <v>68.34507666790174</v>
@@ -9246,22 +9248,22 @@
         <v>134.395403</v>
       </c>
       <c r="L18" t="n">
-        <v>135.0905202853774</v>
+        <v>193.946264309525</v>
       </c>
       <c r="M18" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N18" t="n">
-        <v>172.5974196195541</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O18" t="n">
-        <v>193.2283579979712</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>184.8220668936099</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>190.6792493985089</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9410,7 +9412,7 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N20" t="n">
-        <v>454.8408013884634</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O20" t="n">
         <v>396.0321885132552</v>
@@ -9477,28 +9479,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K21" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L21" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M21" t="n">
-        <v>281.0645842729788</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N21" t="n">
-        <v>402.3419766228525</v>
+        <v>386.6675618896134</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9717,25 +9719,25 @@
         <v>123.666686</v>
       </c>
       <c r="K24" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>362.2401502120437</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N24" t="n">
-        <v>128.05816928125</v>
+        <v>336.6603552159556</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9954,25 +9956,25 @@
         <v>123.666686</v>
       </c>
       <c r="K27" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L27" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M27" t="n">
-        <v>412.8644904155703</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N27" t="n">
-        <v>402.3419766228525</v>
+        <v>269.7194869079138</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P27" t="n">
-        <v>146.9415753334873</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10130,7 +10132,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q29" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R29" t="n">
         <v>68.34507666790174</v>
@@ -10191,22 +10193,22 @@
         <v>123.666686</v>
       </c>
       <c r="K30" t="n">
-        <v>150.7119311045153</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L30" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
-        <v>412.8644904155703</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N30" t="n">
-        <v>402.3419766228525</v>
+        <v>351.7176364193258</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P30" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
         <v>136.482229733871</v>
@@ -10434,7 +10436,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M33" t="n">
-        <v>412.8644904155703</v>
+        <v>139.1386460980858</v>
       </c>
       <c r="N33" t="n">
         <v>402.3419766228525</v>
@@ -10443,10 +10445,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P33" t="n">
-        <v>139.473584579462</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10662,25 +10664,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K36" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
-        <v>385.6739591155975</v>
+        <v>253.0514694006589</v>
       </c>
       <c r="M36" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N36" t="n">
-        <v>329.1923644619304</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P36" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
         <v>218.4803792452831</v>
@@ -10841,7 +10843,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q38" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R38" t="n">
         <v>68.34507666790174</v>
@@ -10911,13 +10913,13 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N39" t="n">
-        <v>329.1923644619304</v>
+        <v>399.2016060198332</v>
       </c>
       <c r="O39" t="n">
-        <v>409.6168120477987</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P39" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
         <v>218.4803792452831</v>
@@ -11069,7 +11071,7 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N41" t="n">
-        <v>439.0039551889695</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O41" t="n">
         <v>396.0321885132552</v>
@@ -11145,13 +11147,13 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>339.2365912991169</v>
+        <v>354.7721594580186</v>
       </c>
       <c r="N42" t="n">
         <v>128.05816928125</v>
       </c>
       <c r="O42" t="n">
-        <v>409.3155340072065</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
         <v>331.2012793855346</v>
@@ -11297,25 +11299,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
-        <v>214.587604768856</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L44" t="n">
-        <v>280.0696625926461</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M44" t="n">
-        <v>274.7849853934995</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N44" t="n">
-        <v>273.8751450035847</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O44" t="n">
-        <v>272.5149860321679</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P44" t="n">
-        <v>225.4521708613878</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q44" t="n">
-        <v>216.7480476275882</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11373,22 +11375,22 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L45" t="n">
-        <v>183.2597501814007</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>188.7780910708764</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N45" t="n">
-        <v>178.2555772781585</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O45" t="n">
-        <v>189.2287463302419</v>
+        <v>277.816905905207</v>
       </c>
       <c r="P45" t="n">
         <v>130.625047228972</v>
@@ -11464,7 +11466,7 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N46" t="n">
-        <v>174.6908138505109</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O46" t="n">
         <v>169.5633330205178</v>
@@ -22592,19 +22594,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>91.65341470396851</v>
+        <v>87.65380303623918</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>151.6679320589013</v>
       </c>
       <c r="T2" t="n">
-        <v>172.7677091995118</v>
+        <v>168.7680975317825</v>
       </c>
       <c r="U2" t="n">
-        <v>201.2803555796359</v>
+        <v>203.7410286559314</v>
       </c>
       <c r="V2" t="n">
-        <v>284.3193445588423</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W2" t="n">
         <v>350.5301170005546</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>44.49757176418265</v>
+        <v>40.49796009645333</v>
       </c>
       <c r="S3" t="n">
-        <v>124.7477369419674</v>
+        <v>114.7645942410065</v>
       </c>
       <c r="T3" t="n">
-        <v>198.3825319082687</v>
+        <v>144.1855122436308</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>176.9204421465882</v>
       </c>
       <c r="V3" t="n">
         <v>231.9087310396551</v>
@@ -22689,10 +22691,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
-        <v>154.2642216115697</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
-        <v>153.4737434216775</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="4">
@@ -22717,16 +22719,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G4" t="n">
-        <v>167.8895889301081</v>
+        <v>166.3419310002468</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6340720089168</v>
+        <v>107.4370523442789</v>
       </c>
       <c r="I4" t="n">
-        <v>153.7585467974036</v>
+        <v>99.56152713276573</v>
       </c>
       <c r="J4" t="n">
-        <v>88.83884492777894</v>
+        <v>34.64182526314104</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,16 +22749,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.56329187893961</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R4" t="n">
-        <v>123.1937396728737</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S4" t="n">
-        <v>172.159998964514</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T4" t="n">
-        <v>218.7059924539999</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U4" t="n">
         <v>286.0522703910642</v>
@@ -22781,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>339.502533027718</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C5" t="n">
-        <v>316.7876876820341</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D5" t="n">
-        <v>306.4073247576898</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E5" t="n">
-        <v>332.9206277583789</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F5" t="n">
         <v>407.2938634805408</v>
@@ -22841,16 +22843,16 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V5" t="n">
-        <v>328.5332215225193</v>
+        <v>280.7964866019063</v>
       </c>
       <c r="W5" t="n">
-        <v>350.5301170005546</v>
+        <v>296.3330973359167</v>
       </c>
       <c r="X5" t="n">
-        <v>370.8615991311694</v>
+        <v>316.6645794665315</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.6870717512358</v>
+        <v>332.4900520865979</v>
       </c>
     </row>
     <row r="6">
@@ -22860,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.3721256103448</v>
+        <v>111.1751059457069</v>
       </c>
       <c r="C6" t="n">
         <v>171.025583927401</v>
@@ -22869,19 +22871,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>111.8195567434968</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>93.30882408664073</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
         <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>60.26510752522421</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
-        <v>36.3061354685631</v>
+        <v>38.76680854485863</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22923,13 +22925,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>249.98934675</v>
+        <v>195.7923270853622</v>
       </c>
       <c r="X6" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>149.4741317539481</v>
       </c>
     </row>
     <row r="7">
@@ -22954,16 +22956,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G7" t="n">
-        <v>158.2631153926003</v>
+        <v>166.3419310002468</v>
       </c>
       <c r="H7" t="n">
-        <v>111.4366640120083</v>
+        <v>107.4370523442789</v>
       </c>
       <c r="I7" t="n">
-        <v>103.5611388004951</v>
+        <v>99.56152713276573</v>
       </c>
       <c r="J7" t="n">
-        <v>38.64143693087037</v>
+        <v>34.64182526314104</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -23030,19 +23032,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
-        <v>407.2938634805408</v>
+        <v>360.2164056944902</v>
       </c>
       <c r="G8" t="n">
-        <v>414.8547654038309</v>
+        <v>360.657745739193</v>
       </c>
       <c r="H8" t="n">
-        <v>338.1439033881534</v>
+        <v>283.9468837235155</v>
       </c>
       <c r="I8" t="n">
-        <v>205.224307868124</v>
+        <v>151.0272882034861</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23078,16 +23080,16 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
-        <v>284.3193445588423</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W8" t="n">
-        <v>300.332709003646</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X8" t="n">
-        <v>320.6641911342608</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
-        <v>336.4896637543272</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="9">
@@ -23103,16 +23105,16 @@
         <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>101.8985466109685</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>105.8360257102653</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>93.30882408664073</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>85.82580220813375</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
         <v>110.4625155221328</v>
@@ -23157,16 +23159,16 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>184.1719961190421</v>
       </c>
       <c r="W9" t="n">
-        <v>249.98934675</v>
+        <v>195.7923270853622</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>150.2646099438404</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>149.4741317539481</v>
       </c>
     </row>
     <row r="10">
@@ -23182,7 +23184,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D10" t="n">
-        <v>98.80815851761079</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E10" t="n">
         <v>146.9746241731992</v>
@@ -23191,10 +23193,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G10" t="n">
-        <v>117.6921809331995</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H10" t="n">
-        <v>137.2331887535757</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
         <v>153.7585467974036</v>
@@ -23221,16 +23223,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.76069987584818</v>
+        <v>25.56368021121028</v>
       </c>
       <c r="R10" t="n">
-        <v>173.3911476697823</v>
+        <v>119.1941280051444</v>
       </c>
       <c r="S10" t="n">
-        <v>172.159998964514</v>
+        <v>168.1603872967846</v>
       </c>
       <c r="T10" t="n">
-        <v>228.3324659915077</v>
+        <v>212.010398343813</v>
       </c>
       <c r="U10" t="n">
         <v>286.0522703910642</v>
@@ -23267,16 +23269,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>407.2938634805408</v>
+        <v>359.5571285599278</v>
       </c>
       <c r="G11" t="n">
-        <v>364.6573574069224</v>
+        <v>360.657745739193</v>
       </c>
       <c r="H11" t="n">
-        <v>287.9464953912448</v>
+        <v>283.9468837235155</v>
       </c>
       <c r="I11" t="n">
-        <v>155.0268998712154</v>
+        <v>151.0272882034861</v>
       </c>
       <c r="J11" t="n">
         <v>0.6592771345624158</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>97.63694573720002</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S11" t="n">
         <v>205.8649517235392</v>
@@ -23343,19 +23345,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>105.8360257102653</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>93.30882408664073</v>
+        <v>95.76949716293626</v>
       </c>
       <c r="G12" t="n">
-        <v>91.80933324136529</v>
+        <v>81.82619054040443</v>
       </c>
       <c r="H12" t="n">
-        <v>110.4625155221328</v>
+        <v>56.26549585749488</v>
       </c>
       <c r="I12" t="n">
-        <v>86.50354346547167</v>
+        <v>32.30652380083377</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>44.49757176418265</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S12" t="n">
         <v>168.9616139056444</v>
@@ -23428,19 +23430,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>158.2631153926003</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H13" t="n">
-        <v>111.4366640120083</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I13" t="n">
-        <v>103.5611388004951</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J13" t="n">
-        <v>38.64143693087037</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.76069987584818</v>
+        <v>25.56368021121028</v>
       </c>
       <c r="R13" t="n">
-        <v>173.3911476697823</v>
+        <v>119.1941280051444</v>
       </c>
       <c r="S13" t="n">
-        <v>222.3574069614225</v>
+        <v>168.1603872967846</v>
       </c>
       <c r="T13" t="n">
-        <v>228.3324659915077</v>
+        <v>212.010398343813</v>
       </c>
       <c r="U13" t="n">
         <v>286.0522703910642</v>
@@ -23495,13 +23497,13 @@
         <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
-        <v>366.9850956789426</v>
+        <v>312.7880760143047</v>
       </c>
       <c r="D14" t="n">
-        <v>312.3908557909214</v>
+        <v>302.4077130899605</v>
       </c>
       <c r="E14" t="n">
-        <v>383.1180357552875</v>
+        <v>335.3813008346744</v>
       </c>
       <c r="F14" t="n">
         <v>407.2938634805408</v>
@@ -23513,7 +23515,7 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I14" t="n">
-        <v>155.0268998712154</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J14" t="n">
         <v>0.6592771345624158</v>
@@ -23540,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>91.65341470396851</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S14" t="n">
-        <v>155.6675437266307</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T14" t="n">
         <v>222.9651171964204</v>
@@ -23561,7 +23563,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.6870717512358</v>
+        <v>332.4900520865979</v>
       </c>
     </row>
     <row r="15">
@@ -23571,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>115.1747176134363</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
         <v>171.025583927401</v>
@@ -23580,10 +23582,10 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>111.8195567434968</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
-        <v>93.30882408664073</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
         <v>136.0232102050423</v>
@@ -23619,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>44.49757176418265</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S15" t="n">
-        <v>168.9616139056444</v>
+        <v>114.7645942410065</v>
       </c>
       <c r="T15" t="n">
-        <v>198.3825319082687</v>
+        <v>144.1855122436308</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6571770672012</v>
+        <v>170.4601574025633</v>
       </c>
       <c r="V15" t="n">
-        <v>231.9087310396551</v>
+        <v>184.1719961190421</v>
       </c>
       <c r="W15" t="n">
         <v>249.98934675</v>
@@ -23665,16 +23667,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>158.2631153926003</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H16" t="n">
-        <v>111.4366640120083</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I16" t="n">
-        <v>103.5611388004951</v>
+        <v>99.56152713276573</v>
       </c>
       <c r="J16" t="n">
-        <v>38.64143693087037</v>
+        <v>34.64182526314104</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.76069987584818</v>
+        <v>25.56368021121028</v>
       </c>
       <c r="R16" t="n">
-        <v>173.3911476697823</v>
+        <v>171.843489739921</v>
       </c>
       <c r="S16" t="n">
         <v>222.3574069614225</v>
@@ -23738,19 +23740,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>383.1180357552875</v>
+        <v>141.5288582488041</v>
       </c>
       <c r="F17" t="n">
-        <v>359.5571285599278</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G17" t="n">
-        <v>360.657745739193</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H17" t="n">
-        <v>283.9468837235155</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I17" t="n">
-        <v>151.0272882034861</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J17" t="n">
         <v>0.6592771345624158</v>
@@ -23808,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0232102050423</v>
+        <v>50.59846856447032</v>
       </c>
       <c r="H18" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>46.95824484047818</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S18" t="n">
-        <v>114.7645942410065</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T18" t="n">
-        <v>144.1855122436308</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U18" t="n">
-        <v>170.4601574025633</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>25.56368021121028</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R19" t="n">
-        <v>119.1941280051444</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.1603872967846</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T19" t="n">
         <v>228.3324659915077</v>
       </c>
       <c r="U19" t="n">
-        <v>269.7302027433696</v>
+        <v>280.5302914192382</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
@@ -23972,10 +23974,10 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E20" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F20" t="n">
         <v>407.2938634805408</v>
@@ -23984,7 +23986,7 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H20" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I20" t="n">
         <v>205.224307868124</v>
@@ -24014,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>100.420718625756</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>151.7394087709382</v>
       </c>
       <c r="V20" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
         <v>370.8615991311694</v>
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
         <v>171.025583927401</v>
@@ -24060,13 +24062,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>59.44831728420148</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>43.54234392164816</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,7 +24098,7 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T21" t="n">
         <v>198.3825319082687</v>
@@ -24108,10 +24110,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>203.671151418586</v>
@@ -24130,7 +24132,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E22" t="n">
         <v>146.9746241731992</v>
@@ -24139,7 +24141,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>137.9820288030191</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H22" t="n">
         <v>161.6340720089168</v>
@@ -24193,7 +24195,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.7486738677682</v>
+        <v>39.83554722615983</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>142.7865096194741</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C23" t="n">
         <v>92.70128833734015</v>
@@ -24212,13 +24214,13 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H23" t="n">
         <v>338.1439033881534</v>
@@ -24227,7 +24229,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24266,13 +24268,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>108.9409394940712</v>
       </c>
       <c r="X23" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="24">
@@ -24294,13 +24296,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>86.50354346547167</v>
@@ -24330,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>12.2476609216391</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
-        <v>44.95881684231247</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
         <v>203.671151418586</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>180.0836914906838</v>
+        <v>1.170564849075447</v>
       </c>
       <c r="C25" t="n">
         <v>167.3365529312023</v>
@@ -24409,13 +24411,13 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S25" t="n">
         <v>222.3574069614225</v>
       </c>
       <c r="T25" t="n">
-        <v>222.8104870196816</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U25" t="n">
         <v>286.0522703910642</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>142.1272324849117</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
         <v>383.1180357552875</v>
@@ -24455,10 +24457,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H26" t="n">
-        <v>338.1439033881534</v>
+        <v>238.4055485825472</v>
       </c>
       <c r="I26" t="n">
         <v>205.224307868124</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>205.8649517235392</v>
@@ -24509,7 +24511,7 @@
         <v>96.5777917895669</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
         <v>171.025583927401</v>
@@ -24528,16 +24530,16 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H27" t="n">
-        <v>55.08969862401651</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I27" t="n">
         <v>86.50354346547167</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>109.4424004108872</v>
       </c>
     </row>
     <row r="28">
@@ -24655,7 +24657,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U28" t="n">
-        <v>107.1391437494559</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
@@ -24664,7 +24666,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X28" t="n">
-        <v>226.1403599323093</v>
+        <v>47.22723329070089</v>
       </c>
       <c r="Y28" t="n">
         <v>218.7486738677682</v>
@@ -24686,13 +24688,13 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>141.5288582488041</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>140.5709580622284</v>
+        <v>263.7977204530425</v>
       </c>
       <c r="H29" t="n">
         <v>338.1439033881534</v>
@@ -24725,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T29" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.4777635765444</v>
@@ -24743,7 +24745,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y29" t="n">
         <v>386.6870717512358</v>
@@ -24756,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>50.59846856447039</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24777,7 +24779,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6571770672012</v>
+        <v>215.9188123402251</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -24825,7 +24827,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24838,7 +24840,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
         <v>149.0055665145194</v>
@@ -24859,7 +24861,7 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J31" t="n">
-        <v>77.26227121737291</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K31" t="n">
         <v>14.77440971783335</v>
@@ -24901,7 +24903,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
-        <v>226.1403599323093</v>
+        <v>47.22723329070089</v>
       </c>
       <c r="Y31" t="n">
         <v>218.7486738677682</v>
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>356.6047327545984</v>
+        <v>234.0603341839341</v>
       </c>
       <c r="E32" t="n">
         <v>383.1180357552875</v>
@@ -24929,10 +24931,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H32" t="n">
-        <v>96.55472588167004</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I32" t="n">
         <v>205.224307868124</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>205.8649517235392</v>
@@ -24971,19 +24973,19 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U32" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W32" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y32" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="33">
@@ -25002,10 +25004,10 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0334337071738</v>
+        <v>117.8783711036978</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>136.0232102050423</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S33" t="n">
         <v>168.9616139056444</v>
@@ -25053,7 +25055,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25062,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>144.942416113721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25129,13 +25131,13 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494558</v>
       </c>
       <c r="V34" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>107.1794502458071</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
         <v>366.9850956789426</v>
@@ -25169,7 +25171,7 @@
         <v>140.5709580622284</v>
       </c>
       <c r="H35" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I35" t="n">
         <v>205.224307868124</v>
@@ -25214,13 +25216,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>350.5301170005546</v>
+        <v>108.9409394940712</v>
       </c>
       <c r="X35" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.0978942447525</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>171.025583927401</v>
@@ -25281,25 +25283,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S36" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>50.24743635262988</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>146.5933471287543</v>
       </c>
     </row>
     <row r="37">
@@ -25366,13 +25368,13 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U37" t="n">
-        <v>107.1391437494559</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X37" t="n">
         <v>226.1403599323093</v>
@@ -25394,10 +25396,10 @@
         <v>92.70128833734015</v>
       </c>
       <c r="D38" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>141.5288582488041</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
         <v>407.2938634805408</v>
@@ -25436,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>205.8649517235392</v>
+        <v>106.126596917933</v>
       </c>
       <c r="T38" t="n">
         <v>222.9651171964204</v>
@@ -25457,7 +25459,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="39">
@@ -25467,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>125.741980398888</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
         <v>136.0232102050423</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>168.9616139056444</v>
@@ -25524,13 +25526,13 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6571770672012</v>
+        <v>144.9424161137212</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.8895889301081</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>161.6340720089168</v>
       </c>
       <c r="I40" t="n">
-        <v>153.7585467974036</v>
+        <v>142.7350090859033</v>
       </c>
       <c r="J40" t="n">
         <v>88.83884492777894</v>
@@ -25603,7 +25605,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U40" t="n">
-        <v>107.1391437494558</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>113.4322143175219</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C41" t="n">
         <v>366.9850956789426</v>
@@ -25637,7 +25639,7 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>137.0096678066677</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G41" t="n">
         <v>414.8547654038309</v>
@@ -25649,7 +25651,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J41" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>205.8649517235392</v>
@@ -25691,10 +25693,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>132.7952795816219</v>
+        <v>271.7825214601255</v>
       </c>
       <c r="Y41" t="n">
-        <v>116.4028760773626</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>171.025583927401</v>
@@ -25755,13 +25757,13 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S42" t="n">
-        <v>24.98049409960248</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>215.6195619629746</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25770,10 +25772,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25828,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>79.76069987584818</v>
+        <v>74.23872090402212</v>
       </c>
       <c r="R43" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>222.3574069614225</v>
@@ -25849,7 +25851,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
-        <v>47.22723329070089</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y43" t="n">
         <v>218.7486738677682</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C44" t="n">
-        <v>366.9850956789426</v>
+        <v>148.1684722446533</v>
       </c>
       <c r="D44" t="n">
         <v>356.6047327545984</v>
@@ -25886,7 +25888,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J44" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V44" t="n">
-        <v>284.3193445588423</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>300.332709003646</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>320.6641911342608</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>336.4896637543272</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="45">
@@ -25941,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>115.1747176134363</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>120.8281759304924</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>95.91501557773699</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
         <v>156.0334337071738</v>
@@ -25962,7 +25964,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I45" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>224.6571770672012</v>
@@ -26004,13 +26006,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084783</v>
+        <v>142.2241972862494</v>
       </c>
       <c r="Y45" t="n">
-        <v>159.457274454909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26041,13 +26043,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I46" t="n">
-        <v>103.5611388004951</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J46" t="n">
-        <v>38.64143693087037</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26065,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.56329187893961</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R46" t="n">
-        <v>163.7646741322745</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S46" t="n">
         <v>222.3574069614225</v>
@@ -26077,7 +26079,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>360289.7245926028</v>
+        <v>363274.3420207752</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>360289.7245926028</v>
+        <v>363274.3420207752</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>360289.7245926028</v>
+        <v>363274.3420207751</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>360289.7245926028</v>
+        <v>363274.3420207752</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>360289.7245926028</v>
+        <v>363274.3420207752</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>363274.3420207752</v>
+        <v>519735.6642877522</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>519735.6642877523</v>
+        <v>519735.6642877522</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>519735.6642877522</v>
+        <v>519735.6642877521</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>519735.6642877521</v>
+        <v>519735.6642877522</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>516892.3108239094</v>
+        <v>519735.6642877522</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>360289.7245926028</v>
+        <v>519735.6642877522</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78053.54647766909</v>
+        <v>78699.55775482325</v>
       </c>
       <c r="C2" t="n">
-        <v>78053.54647766911</v>
+        <v>78699.55775482322</v>
       </c>
       <c r="D2" t="n">
-        <v>78053.54647766909</v>
+        <v>78699.55775482325</v>
       </c>
       <c r="E2" t="n">
-        <v>78053.54647766914</v>
+        <v>78699.55775482324</v>
       </c>
       <c r="F2" t="n">
-        <v>78053.54647766912</v>
+        <v>78699.55775482325</v>
       </c>
       <c r="G2" t="n">
-        <v>78699.55775482322</v>
+        <v>112565.130497528</v>
       </c>
       <c r="H2" t="n">
         <v>112565.130497528</v>
@@ -26347,13 +26349,13 @@
         <v>112565.130497528</v>
       </c>
       <c r="N2" t="n">
+        <v>112565.1304975279</v>
+      </c>
+      <c r="O2" t="n">
         <v>112565.130497528</v>
       </c>
-      <c r="O2" t="n">
-        <v>111949.6953716591</v>
-      </c>
       <c r="P2" t="n">
-        <v>78053.54647766914</v>
+        <v>112565.130497528</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16822.30596014799</v>
+        <v>18162.66782107245</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1096.233563949593</v>
+        <v>60322.48720044085</v>
       </c>
       <c r="H3" t="n">
-        <v>59381.39609633415</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>13133.85061794315</v>
+        <v>14180.32501313452</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>52964.10554124921</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18097.74489122554</v>
+        <v>18252.89346382737</v>
       </c>
       <c r="C4" t="n">
-        <v>18097.74489122554</v>
+        <v>18252.89346382737</v>
       </c>
       <c r="D4" t="n">
-        <v>18097.74489122555</v>
+        <v>18252.89346382737</v>
       </c>
       <c r="E4" t="n">
-        <v>18097.74489122555</v>
+        <v>18252.89346382737</v>
       </c>
       <c r="F4" t="n">
-        <v>18097.74489122555</v>
+        <v>18252.89346382737</v>
       </c>
       <c r="G4" t="n">
-        <v>18252.89346382737</v>
+        <v>26386.18069453981</v>
       </c>
       <c r="H4" t="n">
         <v>26386.18069453981</v>
@@ -26442,7 +26444,7 @@
         <v>26386.18069453981</v>
       </c>
       <c r="K4" t="n">
-        <v>26386.18069453981</v>
+        <v>26386.18069453982</v>
       </c>
       <c r="L4" t="n">
         <v>26386.18069453981</v>
@@ -26454,10 +26456,10 @@
         <v>26386.18069453981</v>
       </c>
       <c r="O4" t="n">
-        <v>26238.37540895993</v>
+        <v>26386.18069453981</v>
       </c>
       <c r="P4" t="n">
-        <v>18097.74489122555</v>
+        <v>26386.18069453981</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36679.60240621204</v>
+        <v>36922.77879560999</v>
       </c>
       <c r="C5" t="n">
-        <v>36679.60240621204</v>
+        <v>36922.77879560999</v>
       </c>
       <c r="D5" t="n">
-        <v>36679.60240621204</v>
+        <v>36922.77879560999</v>
       </c>
       <c r="E5" t="n">
-        <v>3052.002406212041</v>
+        <v>3295.178795609984</v>
       </c>
       <c r="F5" t="n">
-        <v>3052.002406212041</v>
+        <v>3295.178795609984</v>
       </c>
       <c r="G5" t="n">
-        <v>3295.178795609984</v>
+        <v>16676.45548636943</v>
       </c>
       <c r="H5" t="n">
         <v>16676.45548636943</v>
@@ -26506,10 +26508,10 @@
         <v>16676.45548636943</v>
       </c>
       <c r="O5" t="n">
-        <v>16433.27909697149</v>
+        <v>16676.45548636943</v>
       </c>
       <c r="P5" t="n">
-        <v>3052.002406212041</v>
+        <v>16676.45548636943</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6453.893220083519</v>
+        <v>5361.217674313448</v>
       </c>
       <c r="C6" t="n">
-        <v>23276.19918023152</v>
+        <v>23523.88549538587</v>
       </c>
       <c r="D6" t="n">
-        <v>23276.1991802315</v>
+        <v>23523.8854953859</v>
       </c>
       <c r="E6" t="n">
-        <v>56903.79918023154</v>
+        <v>57151.48549538589</v>
       </c>
       <c r="F6" t="n">
-        <v>56903.79918023153</v>
+        <v>57151.4854953859</v>
       </c>
       <c r="G6" t="n">
-        <v>56055.25193143628</v>
+        <v>9180.007116177876</v>
       </c>
       <c r="H6" t="n">
-        <v>10121.09822028461</v>
+        <v>69502.49431661874</v>
       </c>
       <c r="I6" t="n">
         <v>69502.49431661874</v>
       </c>
       <c r="J6" t="n">
-        <v>56368.64369867558</v>
+        <v>55322.16930348422</v>
       </c>
       <c r="K6" t="n">
-        <v>69502.49431661871</v>
+        <v>69502.49431661874</v>
       </c>
       <c r="L6" t="n">
-        <v>69502.49431661871</v>
+        <v>69502.49431661874</v>
       </c>
       <c r="M6" t="n">
         <v>69502.49431661874</v>
       </c>
       <c r="N6" t="n">
+        <v>69502.4943166187</v>
+      </c>
+      <c r="O6" t="n">
+        <v>16538.38877536953</v>
+      </c>
+      <c r="P6" t="n">
         <v>69502.49431661874</v>
-      </c>
-      <c r="O6" t="n">
-        <v>69278.04086572771</v>
-      </c>
-      <c r="P6" t="n">
-        <v>56903.79918023154</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="C4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="D4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="E4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="F4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="G4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H4" t="n">
         <v>274.2838073416025</v>
@@ -26826,10 +26828,10 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O4" t="n">
-        <v>270.2841956738732</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="P4" t="n">
-        <v>50.19740799690857</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.999611667729326</v>
+        <v>220.0867876769646</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>54.19701966463789</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>220.0867876769646</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>50.19740799690857</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.999611667729326</v>
+        <v>220.0867876769646</v>
       </c>
       <c r="P4" t="n">
-        <v>220.0867876769646</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>48.16922989602339</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>47.94769843361666</v>
       </c>
       <c r="O2" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34784,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>40.70123914199824</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>50.19740799690857</v>
+        <v>44.53925033830414</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="P3" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Q3" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>50.19740799690857</v>
       </c>
       <c r="N4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O4" t="n">
         <v>34.56820802997106</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.10968723731074</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>47.94769843361666</v>
       </c>
       <c r="N5" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O5" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Q5" t="n">
         <v>4.059542658712616</v>
@@ -35021,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>40.70123914199824</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="P6" t="n">
-        <v>50.19740799690857</v>
+        <v>44.53925033830414</v>
       </c>
       <c r="Q6" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>50.19740799690857</v>
       </c>
       <c r="N7" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O7" t="n">
         <v>34.56820802997106</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="M8" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>50.19740799690857</v>
+        <v>47.94769843361666</v>
       </c>
       <c r="P8" t="n">
-        <v>44.10968723731075</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Q8" t="n">
         <v>4.059542658712616</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="L9" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="M9" t="n">
-        <v>48.16922989602339</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>50.19740799690857</v>
+        <v>44.53925033830414</v>
       </c>
       <c r="P9" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>50.19740799690857</v>
       </c>
       <c r="N10" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O10" t="n">
         <v>34.56820802997106</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>44.10968723731074</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="N11" t="n">
-        <v>50.19740799690857</v>
+        <v>47.94769843361666</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Q11" t="n">
         <v>4.059542658712616</v>
@@ -35489,25 +35491,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K12" t="n">
-        <v>40.70123914199824</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>44.53925033830414</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>50.19740799690857</v>
       </c>
       <c r="N13" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O13" t="n">
         <v>34.56820802997106</v>
@@ -35650,22 +35652,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>44.10968723731074</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="M14" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="N14" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O14" t="n">
-        <v>50.19740799690857</v>
+        <v>52.00724109232928</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.059542658712616</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K15" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="N15" t="n">
-        <v>48.16922989602339</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="P15" t="n">
-        <v>50.19740799690857</v>
+        <v>44.53925033830414</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>50.19740799690857</v>
       </c>
       <c r="N16" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O16" t="n">
         <v>34.56820802997106</v>
@@ -35884,25 +35886,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>54.19701966463789</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L17" t="n">
-        <v>52.00724109232928</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M17" t="n">
-        <v>54.19701966463789</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N17" t="n">
-        <v>54.19701966463789</v>
+        <v>231.1630643817873</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>109.2184856369541</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35966,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>58.85574402414761</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N18" t="n">
-        <v>44.53925033830414</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O18" t="n">
-        <v>54.19701966463789</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P18" t="n">
-        <v>54.19701966463789</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>142.4839011990109</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2838073416025</v>
+        <v>258.6093926083634</v>
       </c>
       <c r="O21" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M24" t="n">
-        <v>223.6594671380758</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>208.6021859347056</v>
       </c>
       <c r="O24" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P24" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L27" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M27" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2838073416025</v>
+        <v>141.6613176266638</v>
       </c>
       <c r="O27" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P27" t="n">
-        <v>16.31652810451531</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36850,7 +36852,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>16.31652810451528</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L30" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M30" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>274.2838073416025</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="O30" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37154,7 +37156,7 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M33" t="n">
-        <v>274.2838073416025</v>
+        <v>0.5579630241179461</v>
       </c>
       <c r="N33" t="n">
         <v>274.2838073416025</v>
@@ -37163,10 +37165,10 @@
         <v>270.5854737144654</v>
       </c>
       <c r="P33" t="n">
-        <v>8.848537350489996</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L36" t="n">
-        <v>250.5834388302202</v>
+        <v>117.9609491152816</v>
       </c>
       <c r="M36" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N36" t="n">
-        <v>201.1341951806804</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q36" t="n">
         <v>81.99814951141209</v>
@@ -37561,7 +37563,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q38" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37631,13 +37633,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N39" t="n">
-        <v>201.1341951806804</v>
+        <v>271.1434367385833</v>
       </c>
       <c r="O39" t="n">
-        <v>270.5854737144654</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q39" t="n">
         <v>81.99814951141209</v>
@@ -37789,7 +37791,7 @@
         <v>242.9064974359549</v>
       </c>
       <c r="N41" t="n">
-        <v>215.3262181822934</v>
+        <v>231.1630643817873</v>
       </c>
       <c r="O41" t="n">
         <v>171.6864323771106</v>
@@ -37865,13 +37867,13 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M42" t="n">
-        <v>200.6559082251491</v>
+        <v>216.1914763840507</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>270.2841956738732</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P42" t="n">
         <v>200.5762321565626</v>
@@ -38017,25 +38019,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L44" t="n">
-        <v>50.19740799690857</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M44" t="n">
-        <v>50.19740799690857</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N44" t="n">
-        <v>50.19740799690857</v>
+        <v>231.1630643817873</v>
       </c>
       <c r="O44" t="n">
-        <v>48.16922989602337</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>109.2184856369541</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L45" t="n">
-        <v>48.16922989602339</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M45" t="n">
-        <v>50.19740799690857</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N45" t="n">
-        <v>50.19740799690857</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O45" t="n">
-        <v>50.19740799690857</v>
+        <v>138.7855675718737</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>50.19740799690857</v>
       </c>
       <c r="N46" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O46" t="n">
         <v>34.56820802997106</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_3_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_3_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>370162.556629985</v>
+        <v>268227.4041032955</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2254375.780409608</v>
+        <v>925407.2786592083</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18836215.56344936</v>
+        <v>17533693.53488381</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5285367.848236362</v>
+        <v>6009767.376981152</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>47.73673492061303</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>36.68421038714722</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>54.19701966463789</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>47.73673492061303</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.547657929861279</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V5" t="n">
-        <v>47.73673492061304</v>
+        <v>241.6226671993474</v>
       </c>
       <c r="W5" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.19701966463789</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>75.28163213947285</v>
       </c>
       <c r="I6" t="n">
-        <v>47.73673492061303</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>54.19701966463789</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1068,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.547657929861279</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>47.07745778605062</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H8" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>54.19701966463789</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>14.2515927007277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>47.73673492061304</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>54.19701966463789</v>
+        <v>173.526683929027</v>
       </c>
       <c r="Y9" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>16.32206764769463</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>47.73673492061304</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>173.8630887158465</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>47.73673492061304</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>67.0153522782103</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>16.32206764769463</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>47.73673492061303</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>54.19701966463789</v>
+        <v>219.4759005688517</v>
       </c>
     </row>
     <row r="15">
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>69.92076221648072</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>47.73673492061303</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="16">
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.547657929861279</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="H17" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>219.4759005688517</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>85.42474164057199</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,22 +1976,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>174.4097407145713</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="19">
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>5.521978971826058</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>58.53026954800218</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="E20" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>99.73835480560622</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>42.9611995438235</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6571770672012</v>
+        <v>174.4097407145713</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
@@ -2228,7 +2228,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="22">
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,23 +2317,23 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C23" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.5891775064833</v>
+        <v>109.1896825586218</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2408,13 +2408,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>212.4095161455621</v>
+        <v>174.4097407145713</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="25">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>32.75410523180386</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>99.73835480560622</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="H26" t="n">
-        <v>99.73835480560622</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>274.2838073416025</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U27" t="n">
         <v>224.6571770672012</v>
@@ -2696,13 +2696,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>249.98934675</v>
+        <v>1.359378489101499</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>94.22875100769883</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="28">
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>32.75410523180386</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>35.72422578294405</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>151.0570449507884</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T29" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2882,13 +2882,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>198.3825319082687</v>
+        <v>154.2141932558485</v>
       </c>
       <c r="U30" t="n">
-        <v>8.73836472697606</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>5.521978971826058</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D32" t="n">
-        <v>122.5443985706642</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>109.8489596931843</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U32" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V32" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3116,10 +3116,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>38.15506260347603</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3167,10 +3167,10 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
-        <v>249.98934675</v>
+        <v>199.7419103973702</v>
       </c>
       <c r="X33" t="n">
         <v>204.4616296084783</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,58 +3277,58 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.6592771345624158</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>17.96478317550041</v>
+      </c>
+      <c r="T35" t="n">
+        <v>222.9651171964204</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="G35" t="n">
+      <c r="W35" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="H35" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>241.5891775064833</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6571770672012</v>
+        <v>174.4097407145713</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>57.0778042898317</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>32.75410523180386</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>99.73835480560622</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>79.71476095348008</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -3650,7 +3650,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.671151418586</v>
+        <v>153.4237150659563</v>
       </c>
     </row>
     <row r="40">
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.8895889301081</v>
+        <v>32.75410523180386</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>11.02353771150032</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>190.3039770541652</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X41" t="n">
-        <v>99.07907767104388</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>9.037615104226628</v>
+        <v>174.4097407145713</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3942,10 +3942,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.52197897182606</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>173.3911476697823</v>
+        <v>32.75410523180386</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>240.9299003719209</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C44" t="n">
-        <v>218.8166234342893</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,25 +4103,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>174.4097407145713</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>62.23743232222885</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
         <v>203.671151418586</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C2" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D2" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E2" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F2" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G2" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H2" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I2" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J2" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K2" t="n">
-        <v>57.99081104116254</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L2" t="n">
-        <v>57.99081104116254</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M2" t="n">
-        <v>111.6458605091541</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N2" t="n">
-        <v>159.1140819584346</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O2" t="n">
-        <v>159.1140819584346</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P2" t="n">
-        <v>212.7691314264261</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q2" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R2" t="n">
-        <v>162.0436143508365</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S2" t="n">
-        <v>107.2991500431215</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T2" t="n">
-        <v>52.55468573540642</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U2" t="n">
-        <v>4.335761573171031</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V2" t="n">
-        <v>4.335761573171031</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="W2" t="n">
-        <v>4.335761573171031</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="X2" t="n">
-        <v>4.335761573171031</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.335761573171031</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.335761573171031</v>
+        <v>503.251291735001</v>
       </c>
       <c r="C3" t="n">
-        <v>4.335761573171031</v>
+        <v>503.251291735001</v>
       </c>
       <c r="D3" t="n">
-        <v>4.335761573171031</v>
+        <v>503.251291735001</v>
       </c>
       <c r="E3" t="n">
-        <v>4.335761573171031</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F3" t="n">
-        <v>4.335761573171031</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G3" t="n">
-        <v>4.335761573171031</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H3" t="n">
-        <v>4.335761573171031</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I3" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J3" t="n">
-        <v>11.72907241965593</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K3" t="n">
-        <v>11.72907241965593</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L3" t="n">
-        <v>11.72907241965593</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M3" t="n">
-        <v>11.72907241965593</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N3" t="n">
-        <v>55.82293025457702</v>
+        <v>959.7375174702549</v>
       </c>
       <c r="O3" t="n">
-        <v>109.4779797225685</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P3" t="n">
-        <v>163.1330291905601</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q3" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R3" t="n">
-        <v>162.0436143508365</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S3" t="n">
-        <v>107.2991500431215</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T3" t="n">
-        <v>52.55468573540642</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U3" t="n">
-        <v>4.335761573171031</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="V3" t="n">
-        <v>4.335761573171031</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="W3" t="n">
-        <v>4.335761573171031</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="X3" t="n">
-        <v>4.335761573171031</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.335761573171031</v>
+        <v>540.3060497018164</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C4" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D4" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E4" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F4" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G4" t="n">
-        <v>183.4928006759458</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H4" t="n">
-        <v>128.7483363682308</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I4" t="n">
-        <v>74.00387206051573</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J4" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K4" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L4" t="n">
-        <v>41.42228049989023</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M4" t="n">
-        <v>91.1177144168297</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N4" t="n">
-        <v>144.7727638848212</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O4" t="n">
-        <v>178.9952898344926</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P4" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q4" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R4" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S4" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T4" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U4" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V4" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W4" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X4" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y4" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.335761573171031</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="C5" t="n">
-        <v>4.335761573171031</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="D5" t="n">
-        <v>4.335761573171031</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="E5" t="n">
-        <v>4.335761573171031</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="F5" t="n">
-        <v>4.335761573171031</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="G5" t="n">
-        <v>4.335761573171031</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H5" t="n">
-        <v>4.335761573171031</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I5" t="n">
-        <v>4.335761573171031</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J5" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K5" t="n">
-        <v>4.335761573171031</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L5" t="n">
-        <v>4.335761573171031</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M5" t="n">
-        <v>51.80398302245153</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N5" t="n">
-        <v>105.459032490443</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O5" t="n">
-        <v>159.1140819584346</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P5" t="n">
-        <v>212.7691314264261</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q5" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>216.7880786585516</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S5" t="n">
-        <v>216.7880786585516</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T5" t="n">
-        <v>216.7880786585516</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U5" t="n">
-        <v>216.7880786585516</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="V5" t="n">
-        <v>168.5691544963162</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="W5" t="n">
-        <v>113.8246901886011</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="X5" t="n">
-        <v>59.08022588088608</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.335761573171031</v>
+        <v>22.60864108688619</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52.55468573540642</v>
+        <v>242.9405472368455</v>
       </c>
       <c r="C6" t="n">
-        <v>52.55468573540642</v>
+        <v>242.9405472368455</v>
       </c>
       <c r="D6" t="n">
-        <v>52.55468573540642</v>
+        <v>242.9405472368455</v>
       </c>
       <c r="E6" t="n">
-        <v>52.55468573540642</v>
+        <v>242.9405472368455</v>
       </c>
       <c r="F6" t="n">
-        <v>52.55468573540642</v>
+        <v>97.98475725346239</v>
       </c>
       <c r="G6" t="n">
-        <v>52.55468573540642</v>
+        <v>97.98475725346239</v>
       </c>
       <c r="H6" t="n">
-        <v>52.55468573540642</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I6" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>11.72907241965593</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K6" t="n">
-        <v>11.72907241965593</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L6" t="n">
-        <v>11.72907241965593</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M6" t="n">
-        <v>65.38412188764744</v>
+        <v>548.9545891439176</v>
       </c>
       <c r="N6" t="n">
-        <v>65.38412188764744</v>
+        <v>820.4955584121041</v>
       </c>
       <c r="O6" t="n">
-        <v>119.039171355639</v>
+        <v>1088.375177389425</v>
       </c>
       <c r="P6" t="n">
-        <v>163.1330291905601</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q6" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R6" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S6" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T6" t="n">
-        <v>216.7880786585516</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U6" t="n">
-        <v>216.7880786585516</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="V6" t="n">
-        <v>216.7880786585516</v>
+        <v>662.4975900250727</v>
       </c>
       <c r="W6" t="n">
-        <v>162.0436143508365</v>
+        <v>409.983098358406</v>
       </c>
       <c r="X6" t="n">
-        <v>162.0436143508365</v>
+        <v>409.983098358406</v>
       </c>
       <c r="Y6" t="n">
-        <v>107.2991500431215</v>
+        <v>409.983098358406</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C7" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D7" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E7" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F7" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G7" t="n">
-        <v>183.4928006759458</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H7" t="n">
-        <v>128.7483363682308</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I7" t="n">
-        <v>74.00387206051573</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J7" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K7" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L7" t="n">
-        <v>41.42228049989023</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M7" t="n">
-        <v>91.1177144168297</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N7" t="n">
-        <v>144.7727638848212</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O7" t="n">
-        <v>178.9952898344926</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P7" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q7" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R7" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S7" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T7" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U7" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V7" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W7" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X7" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y7" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>216.7880786585516</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="C8" t="n">
-        <v>216.7880786585516</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="D8" t="n">
-        <v>216.7880786585516</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="E8" t="n">
-        <v>216.7880786585516</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="F8" t="n">
-        <v>169.2350909958742</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="G8" t="n">
-        <v>114.4906266881591</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="H8" t="n">
-        <v>59.74616238044408</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="I8" t="n">
-        <v>5.001698072729027</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J8" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K8" t="n">
-        <v>57.99081104116254</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L8" t="n">
-        <v>111.6458605091541</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M8" t="n">
-        <v>111.6458605091541</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N8" t="n">
-        <v>111.6458605091541</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O8" t="n">
-        <v>159.1140819584346</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P8" t="n">
-        <v>212.7691314264261</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q8" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>216.7880786585516</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S8" t="n">
-        <v>216.7880786585516</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T8" t="n">
-        <v>216.7880786585516</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U8" t="n">
-        <v>216.7880786585516</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="V8" t="n">
-        <v>216.7880786585516</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="W8" t="n">
-        <v>216.7880786585516</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="X8" t="n">
-        <v>216.7880786585516</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="Y8" t="n">
-        <v>216.7880786585516</v>
+        <v>506.2943361123045</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.335761573171031</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="C9" t="n">
-        <v>4.335761573171031</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="D9" t="n">
-        <v>4.335761573171031</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="E9" t="n">
-        <v>4.335761573171031</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="F9" t="n">
-        <v>4.335761573171031</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="G9" t="n">
-        <v>4.335761573171031</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H9" t="n">
-        <v>4.335761573171031</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I9" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>11.72907241965593</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K9" t="n">
-        <v>65.38412188764744</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L9" t="n">
-        <v>119.039171355639</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="M9" t="n">
-        <v>119.039171355639</v>
+        <v>277.9660032696079</v>
       </c>
       <c r="N9" t="n">
-        <v>119.039171355639</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O9" t="n">
-        <v>163.1330291905601</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P9" t="n">
-        <v>163.1330291905601</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q9" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R9" t="n">
-        <v>216.7880786585516</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S9" t="n">
-        <v>216.7880786585516</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T9" t="n">
-        <v>216.7880786585516</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="U9" t="n">
-        <v>216.7880786585516</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="V9" t="n">
-        <v>168.5691544963162</v>
+        <v>396.1777984425115</v>
       </c>
       <c r="W9" t="n">
-        <v>113.8246901886011</v>
+        <v>396.1777984425115</v>
       </c>
       <c r="X9" t="n">
-        <v>59.08022588088608</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.335761573171031</v>
+        <v>220.8983197263226</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C10" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D10" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E10" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F10" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G10" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H10" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I10" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J10" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K10" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L10" t="n">
-        <v>41.42228049989023</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M10" t="n">
-        <v>91.1177144168297</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N10" t="n">
-        <v>144.7727638848212</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O10" t="n">
-        <v>178.9952898344926</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P10" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.3116272064745</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R10" t="n">
-        <v>75.56716289875945</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S10" t="n">
-        <v>20.8226985910444</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T10" t="n">
-        <v>4.335761573171031</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U10" t="n">
-        <v>4.335761573171031</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V10" t="n">
-        <v>4.335761573171031</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W10" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X10" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C11" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D11" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E11" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F11" t="n">
-        <v>168.5691544963162</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G11" t="n">
-        <v>113.8246901886011</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H11" t="n">
-        <v>59.08022588088608</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I11" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J11" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K11" t="n">
-        <v>4.335761573171031</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L11" t="n">
-        <v>4.335761573171031</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M11" t="n">
-        <v>57.99081104116254</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N11" t="n">
-        <v>105.459032490443</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O11" t="n">
-        <v>159.1140819584346</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P11" t="n">
-        <v>212.7691314264261</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q11" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R11" t="n">
-        <v>216.7880786585516</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S11" t="n">
-        <v>216.7880786585516</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T11" t="n">
-        <v>216.7880786585516</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="U11" t="n">
-        <v>216.7880786585516</v>
+        <v>474.6163369685898</v>
       </c>
       <c r="V11" t="n">
-        <v>216.7880786585516</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="W11" t="n">
-        <v>216.7880786585516</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="X11" t="n">
-        <v>216.7880786585516</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y11" t="n">
-        <v>216.7880786585516</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>216.7880786585516</v>
+        <v>194.695819665511</v>
       </c>
       <c r="C12" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D12" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E12" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F12" t="n">
-        <v>168.5691544963162</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G12" t="n">
-        <v>113.8246901886011</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H12" t="n">
-        <v>59.08022588088608</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I12" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J12" t="n">
-        <v>11.72907241965593</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K12" t="n">
-        <v>65.38412188764744</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L12" t="n">
-        <v>109.4779797225685</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="M12" t="n">
-        <v>109.4779797225685</v>
+        <v>300.8769847019996</v>
       </c>
       <c r="N12" t="n">
-        <v>109.4779797225685</v>
+        <v>572.4179539701861</v>
       </c>
       <c r="O12" t="n">
-        <v>163.1330291905601</v>
+        <v>840.2975729475068</v>
       </c>
       <c r="P12" t="n">
-        <v>216.7880786585516</v>
+        <v>1038.868042782504</v>
       </c>
       <c r="Q12" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R12" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S12" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T12" t="n">
-        <v>216.7880786585516</v>
+        <v>1029.442954337915</v>
       </c>
       <c r="U12" t="n">
-        <v>216.7880786585516</v>
+        <v>802.5165128558931</v>
       </c>
       <c r="V12" t="n">
-        <v>216.7880786585516</v>
+        <v>568.2652693814939</v>
       </c>
       <c r="W12" t="n">
-        <v>216.7880786585516</v>
+        <v>568.2652693814939</v>
       </c>
       <c r="X12" t="n">
-        <v>216.7880786585516</v>
+        <v>361.7383707870715</v>
       </c>
       <c r="Y12" t="n">
-        <v>216.7880786585516</v>
+        <v>361.7383707870715</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C13" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D13" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E13" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F13" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G13" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H13" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I13" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J13" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K13" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L13" t="n">
-        <v>41.42228049989023</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M13" t="n">
-        <v>91.1177144168297</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N13" t="n">
-        <v>144.7727638848212</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O13" t="n">
-        <v>178.9952898344926</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P13" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q13" t="n">
-        <v>130.3116272064745</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R13" t="n">
-        <v>75.56716289875945</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S13" t="n">
-        <v>20.8226985910444</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T13" t="n">
-        <v>4.335761573171031</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U13" t="n">
-        <v>4.335761573171031</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V13" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W13" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X13" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>162.0436143508365</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C14" t="n">
-        <v>107.2991500431215</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D14" t="n">
-        <v>52.55468573540642</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E14" t="n">
-        <v>4.335761573171031</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F14" t="n">
-        <v>4.335761573171031</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G14" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H14" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I14" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J14" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K14" t="n">
-        <v>4.335761573171031</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L14" t="n">
-        <v>57.99081104116254</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M14" t="n">
-        <v>111.6458605091541</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N14" t="n">
-        <v>165.3009099771456</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O14" t="n">
-        <v>216.7880786585516</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P14" t="n">
-        <v>216.7880786585516</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q14" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R14" t="n">
-        <v>216.7880786585516</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S14" t="n">
-        <v>216.7880786585516</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T14" t="n">
-        <v>216.7880786585516</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U14" t="n">
-        <v>216.7880786585516</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="V14" t="n">
-        <v>216.7880786585516</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="W14" t="n">
-        <v>216.7880786585516</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="X14" t="n">
-        <v>216.7880786585516</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="Y14" t="n">
-        <v>162.0436143508365</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.335761573171031</v>
+        <v>265.3228522074107</v>
       </c>
       <c r="C15" t="n">
-        <v>4.335761573171031</v>
+        <v>92.56973712922792</v>
       </c>
       <c r="D15" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E15" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F15" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G15" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H15" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I15" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J15" t="n">
-        <v>11.72907241965593</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K15" t="n">
-        <v>11.72907241965593</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L15" t="n">
-        <v>65.38412188764744</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M15" t="n">
-        <v>119.039171355639</v>
+        <v>548.9545891439176</v>
       </c>
       <c r="N15" t="n">
-        <v>119.039171355639</v>
+        <v>820.4955584121041</v>
       </c>
       <c r="O15" t="n">
-        <v>172.6942208236305</v>
+        <v>1088.375177389425</v>
       </c>
       <c r="P15" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q15" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R15" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S15" t="n">
-        <v>162.0436143508365</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T15" t="n">
-        <v>107.2991500431215</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U15" t="n">
-        <v>52.55468573540642</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V15" t="n">
-        <v>4.335761573171031</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W15" t="n">
-        <v>4.335761573171031</v>
+        <v>844.6207376997432</v>
       </c>
       <c r="X15" t="n">
-        <v>4.335761573171031</v>
+        <v>638.0938391053207</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.335761573171031</v>
+        <v>432.3654033289712</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>128.7483363682308</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C16" t="n">
-        <v>128.7483363682308</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D16" t="n">
-        <v>128.7483363682308</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E16" t="n">
-        <v>128.7483363682308</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F16" t="n">
-        <v>128.7483363682308</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G16" t="n">
-        <v>128.7483363682308</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H16" t="n">
-        <v>128.7483363682308</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I16" t="n">
-        <v>74.00387206051573</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J16" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K16" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L16" t="n">
-        <v>41.42228049989023</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M16" t="n">
-        <v>91.1177144168297</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N16" t="n">
-        <v>144.7727638848212</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O16" t="n">
-        <v>178.9952898344926</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P16" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q16" t="n">
-        <v>130.3116272064745</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R16" t="n">
-        <v>128.7483363682308</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S16" t="n">
-        <v>128.7483363682308</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T16" t="n">
-        <v>128.7483363682308</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U16" t="n">
-        <v>128.7483363682308</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V16" t="n">
-        <v>128.7483363682308</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W16" t="n">
-        <v>128.7483363682308</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X16" t="n">
-        <v>128.7483363682308</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y16" t="n">
-        <v>128.7483363682308</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C17" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D17" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E17" t="n">
-        <v>853.1057571376389</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F17" t="n">
-        <v>576.0514062875353</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G17" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H17" t="n">
         <v>21.9427045873282</v>
@@ -5539,28 +5539,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R17" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S17" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T17" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U17" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="V17" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="W17" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="X17" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y17" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>930.0926782448495</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C18" t="n">
-        <v>757.3395631666667</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D18" t="n">
-        <v>609.7512565256106</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E18" t="n">
-        <v>452.1417275284654</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F18" t="n">
-        <v>307.1859375450822</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G18" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H18" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I18" t="n">
         <v>21.9427045873282</v>
@@ -5600,19 +5600,19 @@
         <v>29.3360154338131</v>
       </c>
       <c r="L18" t="n">
-        <v>87.60320201771924</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M18" t="n">
-        <v>359.1441712859057</v>
+        <v>548.9545891439176</v>
       </c>
       <c r="N18" t="n">
-        <v>630.6851405540922</v>
+        <v>817.386591515115</v>
       </c>
       <c r="O18" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P18" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q18" t="n">
         <v>1097.13522936641</v>
@@ -5624,22 +5624,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T18" t="n">
-        <v>1097.13522936641</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="U18" t="n">
-        <v>1097.13522936641</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V18" t="n">
-        <v>1097.13522936641</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W18" t="n">
-        <v>1097.13522936641</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X18" t="n">
-        <v>1097.13522936641</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y18" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="19">
@@ -5697,19 +5697,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="R19" t="n">
-        <v>27.52046112452624</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S19" t="n">
-        <v>27.52046112452624</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T19" t="n">
-        <v>27.52046112452624</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W19" t="n">
         <v>21.9427045873282</v>
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>853.1057571376389</v>
+        <v>358.1185398293532</v>
       </c>
       <c r="C20" t="n">
-        <v>853.1057571376389</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D20" t="n">
-        <v>576.0514062875353</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E20" t="n">
         <v>298.9970554374318</v>
@@ -5743,31 +5743,31 @@
         <v>298.9970554374318</v>
       </c>
       <c r="G20" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H20" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I20" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J20" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K20" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L20" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N20" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O20" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P20" t="n">
         <v>1093.116282134284</v>
@@ -5776,28 +5776,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R20" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S20" t="n">
-        <v>953.8515700725947</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T20" t="n">
-        <v>953.8515700725947</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="U20" t="n">
-        <v>853.1057571376389</v>
+        <v>635.1728906794567</v>
       </c>
       <c r="V20" t="n">
-        <v>853.1057571376389</v>
+        <v>635.1728906794567</v>
       </c>
       <c r="W20" t="n">
-        <v>853.1057571376389</v>
+        <v>635.1728906794567</v>
       </c>
       <c r="X20" t="n">
-        <v>853.1057571376389</v>
+        <v>635.1728906794567</v>
       </c>
       <c r="Y20" t="n">
-        <v>853.1057571376389</v>
+        <v>635.1728906794567</v>
       </c>
     </row>
     <row r="21">
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.9161541489002</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C21" t="n">
-        <v>176.9161541489002</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D21" t="n">
-        <v>176.9161541489002</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E21" t="n">
-        <v>176.9161541489002</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F21" t="n">
-        <v>176.9161541489002</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G21" t="n">
-        <v>176.9161541489002</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H21" t="n">
-        <v>65.33785564169537</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I21" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J21" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K21" t="n">
-        <v>21.9427045873282</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L21" t="n">
-        <v>21.9427045873282</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M21" t="n">
-        <v>293.4836738555147</v>
+        <v>416.655578933882</v>
       </c>
       <c r="N21" t="n">
         <v>549.5069725377944</v>
@@ -5864,19 +5864,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U21" t="n">
-        <v>870.2087878843885</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V21" t="n">
-        <v>635.9575444099894</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W21" t="n">
-        <v>383.4430527433227</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X21" t="n">
-        <v>176.9161541489002</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y21" t="n">
-        <v>176.9161541489002</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L22" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M22" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N22" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O22" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U22" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V22" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W22" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X22" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>298.9970554374318</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="C23" t="n">
+        <v>299.6629919369898</v>
+      </c>
+      <c r="D23" t="n">
+        <v>299.6629919369898</v>
+      </c>
+      <c r="E23" t="n">
+        <v>299.6629919369898</v>
+      </c>
+      <c r="F23" t="n">
+        <v>299.6629919369898</v>
+      </c>
+      <c r="G23" t="n">
+        <v>22.60864108688619</v>
+      </c>
+      <c r="H23" t="n">
+        <v>22.60864108688619</v>
+      </c>
+      <c r="I23" t="n">
+        <v>22.60864108688619</v>
+      </c>
+      <c r="J23" t="n">
         <v>21.9427045873282</v>
       </c>
-      <c r="D23" t="n">
-        <v>21.9427045873282</v>
-      </c>
-      <c r="E23" t="n">
-        <v>21.9427045873282</v>
-      </c>
-      <c r="F23" t="n">
-        <v>21.9427045873282</v>
-      </c>
-      <c r="G23" t="n">
-        <v>21.9427045873282</v>
-      </c>
-      <c r="H23" t="n">
-        <v>21.9427045873282</v>
-      </c>
-      <c r="I23" t="n">
-        <v>21.94270458732819</v>
-      </c>
-      <c r="J23" t="n">
-        <v>21.94270458732819</v>
-      </c>
       <c r="K23" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L23" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N23" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O23" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P23" t="n">
         <v>1093.116282134284</v>
@@ -6016,25 +6016,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S23" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T23" t="n">
-        <v>1097.13522936641</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="U23" t="n">
-        <v>1097.13522936641</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="V23" t="n">
-        <v>1097.13522936641</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="W23" t="n">
-        <v>853.1057571376389</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="X23" t="n">
-        <v>853.1057571376389</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="Y23" t="n">
-        <v>576.0514062875353</v>
+        <v>299.6629919369898</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>415.8739751032115</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C24" t="n">
-        <v>415.8739751032115</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D24" t="n">
-        <v>415.8739751032115</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E24" t="n">
-        <v>415.8739751032115</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F24" t="n">
-        <v>270.9181851198283</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G24" t="n">
-        <v>133.521003094533</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H24" t="n">
         <v>21.9427045873282</v>
@@ -6071,49 +6071,49 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K24" t="n">
-        <v>21.9427045873282</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L24" t="n">
-        <v>270.0203090292462</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M24" t="n">
-        <v>541.5612782974326</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N24" t="n">
-        <v>748.0774423727912</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O24" t="n">
-        <v>1015.957061350112</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P24" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q24" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R24" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S24" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T24" t="n">
-        <v>630.4290419169106</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U24" t="n">
-        <v>415.8739751032115</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V24" t="n">
-        <v>415.8739751032115</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W24" t="n">
-        <v>415.8739751032115</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X24" t="n">
-        <v>415.8739751032115</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y24" t="n">
-        <v>415.8739751032115</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E25" t="n">
-        <v>21.9427045873282</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="F25" t="n">
         <v>21.9427045873282</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>399.7428683723875</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C26" t="n">
-        <v>399.7428683723875</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D26" t="n">
-        <v>399.7428683723875</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E26" t="n">
-        <v>399.7428683723875</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F26" t="n">
-        <v>399.7428683723875</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G26" t="n">
-        <v>122.688517522284</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="H26" t="n">
         <v>21.9427045873282</v>
@@ -6262,10 +6262,10 @@
         <v>953.8515700725947</v>
       </c>
       <c r="V26" t="n">
-        <v>953.8515700725947</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="W26" t="n">
-        <v>953.8515700725947</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="X26" t="n">
         <v>676.7972192224911</v>
@@ -6305,49 +6305,49 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J27" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K27" t="n">
-        <v>161.1846636454791</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L27" t="n">
-        <v>409.2622680873972</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M27" t="n">
-        <v>409.2622680873972</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N27" t="n">
-        <v>549.5069725377944</v>
+        <v>959.7375174702549</v>
       </c>
       <c r="O27" t="n">
-        <v>817.386591515115</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P27" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q27" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R27" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S27" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T27" t="n">
-        <v>830.8154377838487</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U27" t="n">
-        <v>603.8889963018272</v>
+        <v>669.8223920174504</v>
       </c>
       <c r="V27" t="n">
-        <v>369.6377528274281</v>
+        <v>435.5711485430513</v>
       </c>
       <c r="W27" t="n">
-        <v>117.1232611607614</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X27" t="n">
-        <v>117.1232611607614</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y27" t="n">
         <v>21.9427045873282</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E28" t="n">
-        <v>21.9427045873282</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="F28" t="n">
         <v>21.9427045873282</v>
@@ -6426,10 +6426,10 @@
         <v>202.6630345283467</v>
       </c>
       <c r="X28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>174.5255782749932</v>
+        <v>612.1364828359636</v>
       </c>
       <c r="C29" t="n">
-        <v>174.5255782749932</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="D29" t="n">
-        <v>174.5255782749932</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E29" t="n">
-        <v>174.5255782749932</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F29" t="n">
-        <v>174.5255782749932</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G29" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H29" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I29" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J29" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K29" t="n">
         <v>143.241092649432</v>
@@ -6487,28 +6487,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R29" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S29" t="n">
-        <v>953.8515700725947</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T29" t="n">
-        <v>728.6342799752003</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="U29" t="n">
-        <v>728.6342799752003</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="V29" t="n">
-        <v>451.5799291250968</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="W29" t="n">
-        <v>451.5799291250968</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="X29" t="n">
-        <v>174.5255782749932</v>
+        <v>612.1364828359636</v>
       </c>
       <c r="Y29" t="n">
-        <v>174.5255782749932</v>
+        <v>612.1364828359636</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>415.8739751032115</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C30" t="n">
-        <v>415.8739751032115</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D30" t="n">
-        <v>415.8739751032115</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E30" t="n">
-        <v>415.8739751032115</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F30" t="n">
-        <v>270.9181851198283</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G30" t="n">
-        <v>133.521003094533</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H30" t="n">
         <v>21.9427045873282</v>
@@ -6542,52 +6542,52 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J30" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K30" t="n">
-        <v>161.1846636454791</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L30" t="n">
-        <v>409.2622680873972</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M30" t="n">
-        <v>409.2622680873972</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="N30" t="n">
-        <v>630.6851405540922</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O30" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P30" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q30" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R30" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S30" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T30" t="n">
-        <v>630.4290419169106</v>
+        <v>941.363316986765</v>
       </c>
       <c r="U30" t="n">
-        <v>621.602410879561</v>
+        <v>714.4368755047435</v>
       </c>
       <c r="V30" t="n">
-        <v>621.602410879561</v>
+        <v>480.1856320303444</v>
       </c>
       <c r="W30" t="n">
-        <v>621.602410879561</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="X30" t="n">
-        <v>621.602410879561</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y30" t="n">
-        <v>415.8739751032115</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="31">
@@ -6645,22 +6645,22 @@
         <v>202.6630345283467</v>
       </c>
       <c r="R31" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="S31" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T31" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U31" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V31" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W31" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X31" t="n">
         <v>21.9427045873282</v>
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>145.7249253657769</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="C32" t="n">
-        <v>145.7249253657769</v>
+        <v>132.9012497319588</v>
       </c>
       <c r="D32" t="n">
-        <v>21.94270458732819</v>
+        <v>132.9012497319588</v>
       </c>
       <c r="E32" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F32" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G32" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H32" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I32" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J32" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K32" t="n">
         <v>143.241092649432</v>
@@ -6724,28 +6724,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R32" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S32" t="n">
-        <v>953.8515700725947</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T32" t="n">
-        <v>953.8515700725947</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="U32" t="n">
-        <v>699.833627065984</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="V32" t="n">
-        <v>422.7792762158805</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="W32" t="n">
-        <v>422.7792762158805</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="X32" t="n">
-        <v>145.7249253657769</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.7249253657769</v>
+        <v>409.9556005820623</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>205.4389618469498</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C33" t="n">
-        <v>205.4389618469498</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D33" t="n">
-        <v>205.4389618469498</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E33" t="n">
-        <v>166.8984945707113</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F33" t="n">
         <v>21.9427045873282</v>
@@ -6788,16 +6788,16 @@
         <v>277.4136198757311</v>
       </c>
       <c r="M33" t="n">
-        <v>277.9660032696079</v>
+        <v>548.9545891439176</v>
       </c>
       <c r="N33" t="n">
-        <v>549.5069725377944</v>
+        <v>820.4955584121041</v>
       </c>
       <c r="O33" t="n">
-        <v>817.386591515115</v>
+        <v>1088.375177389425</v>
       </c>
       <c r="P33" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q33" t="n">
         <v>1097.13522936641</v>
@@ -6815,16 +6815,16 @@
         <v>870.2087878843885</v>
       </c>
       <c r="V33" t="n">
-        <v>870.2087878843885</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W33" t="n">
-        <v>617.6942962177218</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X33" t="n">
-        <v>411.1673976232993</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.4389618469498</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L34" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M34" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N34" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O34" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U34" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V34" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>853.1057571376389</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="C35" t="n">
-        <v>853.1057571376389</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="D35" t="n">
-        <v>853.1057571376389</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="E35" t="n">
-        <v>853.1057571376389</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="F35" t="n">
-        <v>576.0514062875353</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="G35" t="n">
-        <v>298.9970554374318</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H35" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I35" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J35" t="n">
         <v>21.9427045873282</v>
@@ -6943,16 +6943,16 @@
         <v>143.241092649432</v>
       </c>
       <c r="L35" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N35" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O35" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P35" t="n">
         <v>1093.116282134284</v>
@@ -6964,25 +6964,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S35" t="n">
-        <v>1097.13522936641</v>
+        <v>1078.988983734591</v>
       </c>
       <c r="T35" t="n">
-        <v>1097.13522936641</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="U35" t="n">
-        <v>1097.13522936641</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="V35" t="n">
-        <v>1097.13522936641</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="W35" t="n">
-        <v>853.1057571376389</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="X35" t="n">
-        <v>853.1057571376389</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="Y35" t="n">
-        <v>853.1057571376389</v>
+        <v>299.6629919369898</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K36" t="n">
-        <v>161.1846636454791</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L36" t="n">
-        <v>277.9660032696079</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M36" t="n">
-        <v>549.5069725377944</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N36" t="n">
-        <v>549.5069725377944</v>
+        <v>813.1022475656191</v>
       </c>
       <c r="O36" t="n">
-        <v>817.386591515115</v>
+        <v>1080.98186654294</v>
       </c>
       <c r="P36" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q36" t="n">
         <v>1097.13522936641</v>
@@ -7043,25 +7043,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S36" t="n">
-        <v>926.4669324920217</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T36" t="n">
-        <v>726.0805366250836</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U36" t="n">
-        <v>499.1540951430621</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V36" t="n">
-        <v>499.1540951430621</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W36" t="n">
-        <v>246.6396034763954</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X36" t="n">
-        <v>246.6396034763954</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y36" t="n">
-        <v>188.9852557088886</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E37" t="n">
-        <v>21.9427045873282</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="F37" t="n">
         <v>21.9427045873282</v>
@@ -7134,13 +7134,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="W37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>298.9970554374318</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="C38" t="n">
-        <v>21.94270458732819</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="D38" t="n">
-        <v>21.94270458732819</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="E38" t="n">
-        <v>21.94270458732819</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="F38" t="n">
-        <v>21.94270458732819</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="G38" t="n">
-        <v>21.94270458732819</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="H38" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I38" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J38" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K38" t="n">
         <v>143.241092649432</v>
@@ -7198,28 +7198,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R38" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S38" t="n">
-        <v>853.1057571376389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T38" t="n">
-        <v>853.1057571376389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U38" t="n">
-        <v>853.1057571376389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V38" t="n">
-        <v>853.1057571376389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W38" t="n">
-        <v>853.1057571376389</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="X38" t="n">
-        <v>853.1057571376389</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="Y38" t="n">
-        <v>576.0514062875353</v>
+        <v>820.0808785163064</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K39" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L39" t="n">
-        <v>277.4136198757311</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M39" t="n">
-        <v>548.9545891439176</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N39" t="n">
-        <v>817.386591515115</v>
+        <v>959.7375174702549</v>
       </c>
       <c r="O39" t="n">
-        <v>817.386591515115</v>
+        <v>959.7375174702549</v>
       </c>
       <c r="P39" t="n">
         <v>1015.957061350112</v>
@@ -7277,25 +7277,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R39" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S39" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T39" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U39" t="n">
-        <v>920.9637740991661</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V39" t="n">
-        <v>686.7125306247669</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W39" t="n">
-        <v>434.1980389581003</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="X39" t="n">
-        <v>227.6711403636777</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="Y39" t="n">
         <v>21.9427045873282</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F40" t="n">
-        <v>1097.13522936641</v>
+        <v>55.02765936692805</v>
       </c>
       <c r="G40" t="n">
-        <v>927.5497860026644</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H40" t="n">
-        <v>927.5497860026644</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L40" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M40" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N40" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O40" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>299.6629919369897</v>
+        <v>214.8348805355379</v>
       </c>
       <c r="C41" t="n">
-        <v>299.6629919369897</v>
+        <v>214.8348805355379</v>
       </c>
       <c r="D41" t="n">
-        <v>299.6629919369897</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="E41" t="n">
-        <v>299.6629919369897</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="F41" t="n">
         <v>22.60864108688619</v>
@@ -7411,13 +7411,13 @@
         <v>22.60864108688619</v>
       </c>
       <c r="J41" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K41" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494321</v>
       </c>
       <c r="L41" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007956</v>
       </c>
       <c r="M41" t="n">
         <v>586.1689795623909</v>
@@ -7438,25 +7438,25 @@
         <v>953.8515700725947</v>
       </c>
       <c r="S41" t="n">
-        <v>953.8515700725947</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T41" t="n">
-        <v>953.8515700725947</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U41" t="n">
-        <v>953.8515700725947</v>
+        <v>491.8892313856415</v>
       </c>
       <c r="V41" t="n">
-        <v>953.8515700725947</v>
+        <v>491.8892313856415</v>
       </c>
       <c r="W41" t="n">
-        <v>953.8515700725947</v>
+        <v>214.8348805355379</v>
       </c>
       <c r="X41" t="n">
-        <v>853.7716936371968</v>
+        <v>214.8348805355379</v>
       </c>
       <c r="Y41" t="n">
-        <v>576.7173427870932</v>
+        <v>214.8348805355379</v>
       </c>
     </row>
     <row r="42">
@@ -7499,16 +7499,16 @@
         <v>416.655578933882</v>
       </c>
       <c r="M42" t="n">
-        <v>630.6851405540922</v>
+        <v>416.655578933882</v>
       </c>
       <c r="N42" t="n">
-        <v>630.6851405540922</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O42" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P42" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q42" t="n">
         <v>1097.13522936641</v>
@@ -7523,19 +7523,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U42" t="n">
-        <v>1088.006325220726</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V42" t="n">
-        <v>853.7550817463274</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W42" t="n">
-        <v>601.2405900796607</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X42" t="n">
-        <v>394.7136914852382</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y42" t="n">
-        <v>188.9852557088886</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21.9427045873282</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="C43" t="n">
-        <v>21.9427045873282</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="D43" t="n">
-        <v>21.9427045873282</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="E43" t="n">
-        <v>21.9427045873282</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="F43" t="n">
         <v>21.9427045873282</v>
@@ -7590,31 +7590,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q43" t="n">
-        <v>197.0852779911487</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R43" t="n">
-        <v>21.9427045873282</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="S43" t="n">
-        <v>21.9427045873282</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="T43" t="n">
-        <v>21.9427045873282</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="U43" t="n">
-        <v>21.9427045873282</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="V43" t="n">
-        <v>21.9427045873282</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="W43" t="n">
-        <v>21.9427045873282</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="X43" t="n">
-        <v>21.9427045873282</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="Y43" t="n">
-        <v>21.9427045873282</v>
+        <v>169.5780797487469</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>243.6355334447542</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="C44" t="n">
-        <v>22.60864108688619</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="D44" t="n">
-        <v>22.60864108688619</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="E44" t="n">
-        <v>22.60864108688619</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="F44" t="n">
-        <v>22.60864108688619</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="G44" t="n">
         <v>22.60864108688619</v>
@@ -7648,7 +7648,7 @@
         <v>22.60864108688619</v>
       </c>
       <c r="J44" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K44" t="n">
         <v>143.241092649432</v>
@@ -7672,28 +7672,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R44" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S44" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T44" t="n">
-        <v>520.6898842948577</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U44" t="n">
-        <v>520.6898842948577</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V44" t="n">
-        <v>520.6898842948577</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W44" t="n">
-        <v>520.6898842948577</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X44" t="n">
-        <v>520.6898842948577</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y44" t="n">
-        <v>520.6898842948577</v>
+        <v>820.0808785163064</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C45" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D45" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E45" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F45" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G45" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H45" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I45" t="n">
         <v>21.9427045873282</v>
@@ -7736,13 +7736,13 @@
         <v>416.655578933882</v>
       </c>
       <c r="M45" t="n">
-        <v>688.1965482020685</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N45" t="n">
-        <v>959.7375174702549</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O45" t="n">
-        <v>1097.13522936641</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P45" t="n">
         <v>1097.13522936641</v>
@@ -7751,28 +7751,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R45" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S45" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T45" t="n">
-        <v>630.4290419169106</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U45" t="n">
-        <v>630.4290419169106</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V45" t="n">
-        <v>630.4290419169106</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W45" t="n">
-        <v>377.9145502502439</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X45" t="n">
-        <v>315.0484569954673</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y45" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="46">
@@ -7839,10 +7839,10 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U46" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V46" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W46" t="n">
         <v>21.9427045873282</v>
@@ -7981,25 +7981,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K2" t="n">
-        <v>268.7846244334939</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L2" t="n">
-        <v>229.8722545957376</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M2" t="n">
-        <v>278.7845970612288</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N2" t="n">
-        <v>271.6254354402928</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O2" t="n">
-        <v>224.3457561361446</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P2" t="n">
-        <v>279.6491905260257</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q2" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R2" t="n">
         <v>68.34507666790174</v>
@@ -8060,25 +8060,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K3" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L3" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M3" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N3" t="n">
-        <v>172.5974196195541</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O3" t="n">
-        <v>193.2283579979712</v>
+        <v>277.816905905207</v>
       </c>
       <c r="P3" t="n">
-        <v>184.8220668936099</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q3" t="n">
-        <v>190.6792493985089</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8218,22 +8218,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K5" t="n">
-        <v>214.587604768856</v>
+        <v>337.1112290740112</v>
       </c>
       <c r="L5" t="n">
-        <v>229.8722545957376</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M5" t="n">
-        <v>272.5352758302076</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N5" t="n">
-        <v>277.8747566713141</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O5" t="n">
-        <v>278.5427758007825</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P5" t="n">
-        <v>279.6491905260257</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q5" t="n">
         <v>220.8075902863009</v>
@@ -8300,22 +8300,22 @@
         <v>134.395403</v>
       </c>
       <c r="L6" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
-        <v>192.7777027386057</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N6" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O6" t="n">
-        <v>193.2283579979712</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P6" t="n">
-        <v>175.1642975672762</v>
+        <v>139.473584579462</v>
       </c>
       <c r="Q6" t="n">
-        <v>190.6792493985089</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8455,25 +8455,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K8" t="n">
-        <v>268.7846244334939</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L8" t="n">
-        <v>284.0692742603754</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M8" t="n">
-        <v>224.5875773965909</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N8" t="n">
-        <v>223.6777370066762</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O8" t="n">
-        <v>272.2934545697612</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P8" t="n">
-        <v>279.6491905260257</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q8" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R8" t="n">
         <v>68.34507666790174</v>
@@ -8531,28 +8531,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5924226646379</v>
+        <v>134.395403</v>
       </c>
       <c r="L9" t="n">
-        <v>189.2875399500152</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M9" t="n">
-        <v>138.5806830739679</v>
+        <v>397.1900756823312</v>
       </c>
       <c r="N9" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O9" t="n">
-        <v>183.5705886716374</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P9" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q9" t="n">
-        <v>190.6792493985089</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8692,22 +8692,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K11" t="n">
-        <v>214.587604768856</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L11" t="n">
-        <v>229.8722545957376</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M11" t="n">
-        <v>278.7845970612288</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N11" t="n">
-        <v>271.6254354402928</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O11" t="n">
-        <v>278.5427758007825</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P11" t="n">
-        <v>279.6491905260257</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q11" t="n">
         <v>220.8075902863009</v>
@@ -8771,25 +8771,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
-        <v>188.5924226646379</v>
+        <v>134.395403</v>
       </c>
       <c r="L12" t="n">
-        <v>179.6297706236815</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M12" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N12" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O12" t="n">
-        <v>193.2283579979712</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>184.8220668936099</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.482229733871</v>
+        <v>195.3379737580186</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8929,25 +8929,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
-        <v>214.587604768856</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L14" t="n">
-        <v>284.0692742603754</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M14" t="n">
-        <v>278.7845970612288</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N14" t="n">
-        <v>277.8747566713141</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O14" t="n">
-        <v>276.3529972284738</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P14" t="n">
-        <v>225.4521708613878</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q14" t="n">
-        <v>216.7480476275882</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9011,19 +9011,19 @@
         <v>134.395403</v>
       </c>
       <c r="L15" t="n">
-        <v>189.2875399500152</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
-        <v>192.7777027386057</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N15" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O15" t="n">
-        <v>193.2283579979712</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
-        <v>175.1642975672762</v>
+        <v>139.473584579462</v>
       </c>
       <c r="Q15" t="n">
         <v>136.482229733871</v>
@@ -9248,22 +9248,22 @@
         <v>134.395403</v>
       </c>
       <c r="L18" t="n">
-        <v>193.946264309525</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N18" t="n">
-        <v>402.3419766228525</v>
+        <v>399.2016060198332</v>
       </c>
       <c r="O18" t="n">
-        <v>409.6168120477987</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P18" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9403,7 +9403,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740112</v>
       </c>
       <c r="L20" t="n">
         <v>434.3676631324684</v>
@@ -9479,19 +9479,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>412.8644904155703</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N21" t="n">
-        <v>386.6675618896134</v>
+        <v>262.2514961538888</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9719,25 +9719,25 @@
         <v>123.666686</v>
       </c>
       <c r="K24" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>412.8644904155703</v>
+        <v>362.2401502120437</v>
       </c>
       <c r="N24" t="n">
-        <v>336.6603552159556</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9953,7 +9953,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
         <v>275.0438464930818</v>
@@ -9962,19 +9962,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M27" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N27" t="n">
-        <v>269.7194869079138</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O27" t="n">
-        <v>409.6168120477987</v>
+        <v>277.816905905207</v>
       </c>
       <c r="P27" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q27" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10190,7 +10190,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K30" t="n">
         <v>275.0438464930818</v>
@@ -10199,10 +10199,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
-        <v>138.5806830739679</v>
+        <v>272.7740099466066</v>
       </c>
       <c r="N30" t="n">
-        <v>351.7176364193258</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
@@ -10211,7 +10211,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10436,7 +10436,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M33" t="n">
-        <v>139.1386460980858</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N33" t="n">
         <v>402.3419766228525</v>
@@ -10445,10 +10445,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P33" t="n">
-        <v>331.2012793855346</v>
+        <v>139.473584579462</v>
       </c>
       <c r="Q33" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10667,25 +10667,25 @@
         <v>123.666686</v>
       </c>
       <c r="K36" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L36" t="n">
-        <v>253.0514694006589</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N36" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P36" t="n">
-        <v>331.2012793855346</v>
+        <v>146.9415753334873</v>
       </c>
       <c r="Q36" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10843,7 +10843,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q38" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R38" t="n">
         <v>68.34507666790174</v>
@@ -10904,7 +10904,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
@@ -10913,13 +10913,13 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N39" t="n">
-        <v>399.2016060198332</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O39" t="n">
         <v>139.0313383333333</v>
       </c>
       <c r="P39" t="n">
-        <v>331.2012793855346</v>
+        <v>187.4124652894337</v>
       </c>
       <c r="Q39" t="n">
         <v>218.4803792452831</v>
@@ -11147,10 +11147,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>354.7721594580186</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N42" t="n">
-        <v>128.05816928125</v>
+        <v>262.2514961538888</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11159,7 +11159,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11384,16 +11384,16 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>412.8644904155703</v>
+        <v>354.7721594580186</v>
       </c>
       <c r="N45" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O45" t="n">
-        <v>277.816905905207</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P45" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
         <v>136.482229733871</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C2" t="n">
         <v>366.9850956789426</v>
@@ -22594,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>87.65380303623918</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>151.6679320589013</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
-        <v>168.7680975317825</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
-        <v>203.7410286559314</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
-        <v>328.5332215225193</v>
+        <v>86.944044016036</v>
       </c>
       <c r="W2" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X2" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y2" t="n">
         <v>386.6870717512358</v>
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>128.6879152231976</v>
       </c>
       <c r="C3" t="n">
         <v>171.025583927401</v>
@@ -22637,16 +22637,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,19 +22673,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>40.49796009645333</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>114.7645942410065</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
-        <v>144.1855122436308</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>176.9204421465882</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>249.98934675</v>
@@ -22719,19 +22719,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3419310002468</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H4" t="n">
-        <v>107.4370523442789</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
-        <v>99.56152713276573</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>34.64182526314104</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22770,7 +22770,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X4" t="n">
-        <v>226.1403599323093</v>
+        <v>47.22723329070089</v>
       </c>
       <c r="Y4" t="n">
         <v>218.7486738677682</v>
@@ -22807,7 +22807,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>280.7964866019063</v>
+        <v>86.91055432317197</v>
       </c>
       <c r="W5" t="n">
-        <v>296.3330973359167</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X5" t="n">
-        <v>316.6645794665315</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y5" t="n">
-        <v>332.4900520865979</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111.1751059457069</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>171.025583927401</v>
@@ -22874,16 +22874,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4625155221328</v>
+        <v>35.18088338265993</v>
       </c>
       <c r="I6" t="n">
-        <v>38.76680854485863</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22916,22 +22916,22 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>195.7923270853622</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>149.4741317539481</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3419310002468</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H7" t="n">
-        <v>107.4370523442789</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
-        <v>99.56152713276573</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J7" t="n">
-        <v>34.64182526314104</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22998,7 +22998,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U7" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V7" t="n">
         <v>252.9363510669392</v>
@@ -23032,19 +23032,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
-        <v>360.2164056944902</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G8" t="n">
-        <v>360.657745739193</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H8" t="n">
-        <v>283.9468837235155</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
-        <v>151.0272882034861</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.4777635765444</v>
+        <v>237.2261708758167</v>
       </c>
       <c r="V8" t="n">
         <v>328.5332215225193</v>
@@ -23117,10 +23117,10 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>184.1719961190421</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>195.7923270853622</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>150.2646099438404</v>
+        <v>30.93494567945129</v>
       </c>
       <c r="Y9" t="n">
-        <v>149.4741317539481</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -23223,16 +23223,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.56368021121028</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
-        <v>119.1941280051444</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S10" t="n">
-        <v>168.1603872967846</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T10" t="n">
-        <v>212.010398343813</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U10" t="n">
         <v>286.0522703910642</v>
@@ -23241,7 +23241,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W10" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X10" t="n">
         <v>226.1403599323093</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C11" t="n">
         <v>366.9850956789426</v>
@@ -23269,16 +23269,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>359.5571285599278</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>360.657745739193</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H11" t="n">
-        <v>283.9468837235155</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I11" t="n">
-        <v>151.0272882034861</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J11" t="n">
         <v>0.6592771345624158</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T11" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>328.5332215225193</v>
+        <v>154.6701328066729</v>
       </c>
       <c r="W11" t="n">
         <v>350.5301170005546</v>
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>146.1124235746456</v>
@@ -23348,16 +23348,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>95.76949716293626</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>81.82619054040443</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H12" t="n">
-        <v>56.26549585749488</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I12" t="n">
-        <v>32.30652380083377</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,19 +23390,19 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T12" t="n">
-        <v>198.3825319082687</v>
+        <v>131.3671796300584</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>203.671151418586</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>25.56368021121028</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R13" t="n">
-        <v>119.1941280051444</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S13" t="n">
-        <v>168.1603872967846</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T13" t="n">
-        <v>212.010398343813</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U13" t="n">
         <v>286.0522703910642</v>
       </c>
       <c r="V13" t="n">
-        <v>252.9363510669392</v>
+        <v>74.0232244253308</v>
       </c>
       <c r="W13" t="n">
         <v>286.0925768874155</v>
@@ -23497,19 +23497,19 @@
         <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
-        <v>312.7880760143047</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>302.4077130899605</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>335.3813008346744</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H14" t="n">
         <v>338.1439033881534</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.4777635765444</v>
@@ -23563,7 +23563,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>332.4900520865979</v>
+        <v>167.2111711823841</v>
       </c>
     </row>
     <row r="15">
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>146.1124235746456</v>
+        <v>76.19166135816484</v>
       </c>
       <c r="E15" t="n">
         <v>156.0334337071738</v>
@@ -23624,25 +23624,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S15" t="n">
-        <v>114.7645942410065</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T15" t="n">
-        <v>144.1855122436308</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U15" t="n">
-        <v>170.4601574025633</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V15" t="n">
-        <v>184.1719961190421</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23673,13 +23673,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I16" t="n">
-        <v>99.56152713276573</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J16" t="n">
-        <v>34.64182526314104</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>25.56368021121028</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R16" t="n">
-        <v>171.843489739921</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S16" t="n">
         <v>222.3574069614225</v>
@@ -23715,7 +23715,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X16" t="n">
         <v>226.1403599323093</v>
@@ -23740,16 +23740,16 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>141.5288582488041</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
         <v>140.5709580622284</v>
       </c>
       <c r="H17" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I17" t="n">
         <v>205.224307868124</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>109.0573209536676</v>
       </c>
       <c r="W17" t="n">
         <v>350.5301170005546</v>
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>50.59846856447032</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,22 +23864,22 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T18" t="n">
-        <v>198.3825319082687</v>
+        <v>23.97279119369733</v>
       </c>
       <c r="U18" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V18" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23937,7 +23937,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S19" t="n">
         <v>222.3574069614225</v>
@@ -23946,13 +23946,13 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U19" t="n">
-        <v>280.5302914192382</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X19" t="n">
         <v>226.1403599323093</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C20" t="n">
-        <v>366.9850956789426</v>
+        <v>308.4548261309404</v>
       </c>
       <c r="D20" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H20" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I20" t="n">
         <v>205.224307868124</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S20" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U20" t="n">
-        <v>151.7394087709382</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
@@ -24065,10 +24065,10 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I21" t="n">
-        <v>43.54234392164816</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>50.24743635262988</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24183,7 +24183,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V22" t="n">
         <v>252.9363510669392</v>
@@ -24195,7 +24195,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y22" t="n">
-        <v>39.83554722615983</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
         <v>356.6047327545984</v>
@@ -24220,7 +24220,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H23" t="n">
         <v>338.1439033881534</v>
@@ -24229,7 +24229,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S23" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>108.9409394940712</v>
+        <v>241.3404344419328</v>
       </c>
       <c r="X23" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -24296,13 +24296,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I24" t="n">
         <v>86.50354346547167</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U24" t="n">
-        <v>12.2476609216391</v>
+        <v>50.24743635262988</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.170564849075447</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C25" t="n">
         <v>167.3365529312023</v>
@@ -24372,10 +24372,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
-        <v>146.9746241731992</v>
+        <v>114.2205189413953</v>
       </c>
       <c r="F25" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.8895889301081</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>383.716409991395</v>
+        <v>283.9780551857888</v>
       </c>
       <c r="C26" t="n">
         <v>366.9850956789426</v>
@@ -24457,10 +24457,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H26" t="n">
-        <v>238.4055485825472</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I26" t="n">
         <v>205.224307868124</v>
@@ -24502,13 +24502,13 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V26" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W26" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
         <v>112.4032644096333</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T27" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24584,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>248.6299682608986</v>
       </c>
       <c r="X27" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>109.4424004108872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24609,10 +24609,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
-        <v>146.9746241731992</v>
+        <v>114.2205189413953</v>
       </c>
       <c r="F28" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.8895889301081</v>
@@ -24666,7 +24666,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X28" t="n">
-        <v>47.22723329070089</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y28" t="n">
         <v>218.7486738677682</v>
@@ -24682,10 +24682,10 @@
         <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>331.2608698959986</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E29" t="n">
         <v>383.1180357552875</v>
@@ -24694,7 +24694,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>263.7977204530425</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H29" t="n">
         <v>338.1439033881534</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S29" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U29" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V29" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
         <v>350.5301170005546</v>
@@ -24770,13 +24770,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I30" t="n">
         <v>86.50354346547167</v>
@@ -24806,22 +24806,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>44.16833865242018</v>
       </c>
       <c r="U30" t="n">
-        <v>215.9188123402251</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>204.4616296084783</v>
@@ -24885,10 +24885,10 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R31" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>222.3574069614225</v>
+        <v>216.8354279895965</v>
       </c>
       <c r="T31" t="n">
         <v>228.3324659915077</v>
@@ -24903,7 +24903,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
-        <v>47.22723329070089</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y31" t="n">
         <v>218.7486738677682</v>
@@ -24919,13 +24919,13 @@
         <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D32" t="n">
-        <v>234.0603341839341</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>383.1180357552875</v>
+        <v>273.2690760621032</v>
       </c>
       <c r="F32" t="n">
         <v>407.2938634805408</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S32" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
         <v>386.6870717512358</v>
@@ -25004,10 +25004,10 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>117.8783711036978</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
         <v>136.0232102050423</v>
@@ -25055,10 +25055,10 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>50.24743635262979</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U34" t="n">
-        <v>107.1391437494558</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V34" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
@@ -25156,7 +25156,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D35" t="n">
         <v>356.6047327545984</v>
@@ -25165,19 +25165,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H35" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I35" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J35" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S35" t="n">
-        <v>205.8649517235392</v>
+        <v>187.9001685480388</v>
       </c>
       <c r="T35" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W35" t="n">
-        <v>108.9409394940712</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X35" t="n">
         <v>370.8615991311694</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
         <v>171.025583927401</v>
@@ -25283,25 +25283,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>50.24743635262988</v>
       </c>
       <c r="V36" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>146.5933471287543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25320,10 +25320,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
-        <v>146.9746241731992</v>
+        <v>114.2205189413953</v>
       </c>
       <c r="F37" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.8895889301081</v>
@@ -25374,7 +25374,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
-        <v>107.1794502458072</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X37" t="n">
         <v>226.1403599323093</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
         <v>92.70128833734015</v>
       </c>
       <c r="D38" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E38" t="n">
         <v>383.1180357552875</v>
@@ -25408,7 +25408,7 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H38" t="n">
-        <v>338.1439033881534</v>
+        <v>96.55472588167004</v>
       </c>
       <c r="I38" t="n">
         <v>205.224307868124</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S38" t="n">
-        <v>106.126596917933</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T38" t="n">
         <v>222.9651171964204</v>
@@ -25453,13 +25453,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X38" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="39">
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S39" t="n">
         <v>168.9616139056444</v>
@@ -25526,7 +25526,7 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U39" t="n">
-        <v>144.9424161137212</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>50.24743635262973</v>
       </c>
     </row>
     <row r="40">
@@ -25560,16 +25560,16 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>135.1354836983042</v>
       </c>
       <c r="H40" t="n">
         <v>161.6340720089168</v>
       </c>
       <c r="I40" t="n">
-        <v>142.7350090859033</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J40" t="n">
         <v>88.83884492777894</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>356.6047327545984</v>
+        <v>166.3007557004332</v>
       </c>
       <c r="E41" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
         <v>414.8547654038309</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U41" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X41" t="n">
-        <v>271.7825214601255</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
         <v>171.025583927401</v>
@@ -25763,7 +25763,7 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U42" t="n">
-        <v>215.6195619629746</v>
+        <v>50.24743635262988</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.8895889301081</v>
@@ -25830,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.23872090402212</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>140.6370424379784</v>
       </c>
       <c r="S43" t="n">
         <v>222.3574069614225</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>109.4326026497926</v>
+        <v>142.7865096194741</v>
       </c>
       <c r="C44" t="n">
-        <v>148.1684722446533</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
         <v>356.6047327545984</v>
@@ -25876,10 +25876,10 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G44" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H44" t="n">
         <v>338.1439033881534</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U44" t="n">
         <v>251.4777635765444</v>
@@ -25933,7 +25933,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="45">
@@ -25964,7 +25964,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6571770672012</v>
+        <v>50.24743635262988</v>
       </c>
       <c r="V45" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>142.2241972862494</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U46" t="n">
-        <v>107.1391437494559</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>363274.3420207752</v>
+        <v>519735.6642877522</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>363274.3420207752</v>
+        <v>519735.6642877521</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>363274.3420207751</v>
+        <v>519735.6642877522</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>363274.3420207752</v>
+        <v>519735.6642877521</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>363274.3420207752</v>
+        <v>519735.6642877522</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>519735.6642877521</v>
+        <v>519735.6642877522</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>519735.6642877522</v>
+        <v>519735.6642877523</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>519735.6642877522</v>
+        <v>519735.6642877523</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78699.55775482325</v>
+        <v>112565.130497528</v>
       </c>
       <c r="C2" t="n">
-        <v>78699.55775482322</v>
+        <v>112565.130497528</v>
       </c>
       <c r="D2" t="n">
-        <v>78699.55775482325</v>
+        <v>112565.1304975279</v>
       </c>
       <c r="E2" t="n">
-        <v>78699.55775482324</v>
+        <v>112565.130497528</v>
       </c>
       <c r="F2" t="n">
-        <v>78699.55775482325</v>
+        <v>112565.130497528</v>
       </c>
       <c r="G2" t="n">
         <v>112565.130497528</v>
@@ -26334,28 +26334,28 @@
         <v>112565.130497528</v>
       </c>
       <c r="I2" t="n">
-        <v>112565.130497528</v>
+        <v>112565.1304975279</v>
       </c>
       <c r="J2" t="n">
         <v>112565.130497528</v>
       </c>
       <c r="K2" t="n">
+        <v>112565.1304975279</v>
+      </c>
+      <c r="L2" t="n">
+        <v>112565.1304975279</v>
+      </c>
+      <c r="M2" t="n">
+        <v>112565.1304975279</v>
+      </c>
+      <c r="N2" t="n">
         <v>112565.130497528</v>
-      </c>
-      <c r="L2" t="n">
-        <v>112565.130497528</v>
-      </c>
-      <c r="M2" t="n">
-        <v>112565.130497528</v>
-      </c>
-      <c r="N2" t="n">
-        <v>112565.1304975279</v>
       </c>
       <c r="O2" t="n">
         <v>112565.130497528</v>
       </c>
       <c r="P2" t="n">
-        <v>112565.130497528</v>
+        <v>112565.1304975279</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18162.66782107245</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>60322.48720044085</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14180.32501313452</v>
+        <v>71764.71248808624</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>52964.10554124921</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18252.89346382737</v>
+        <v>26386.18069453981</v>
       </c>
       <c r="C4" t="n">
-        <v>18252.89346382737</v>
+        <v>26386.18069453981</v>
       </c>
       <c r="D4" t="n">
-        <v>18252.89346382737</v>
+        <v>26386.18069453981</v>
       </c>
       <c r="E4" t="n">
-        <v>18252.89346382737</v>
+        <v>26386.18069453981</v>
       </c>
       <c r="F4" t="n">
-        <v>18252.89346382737</v>
+        <v>26386.18069453981</v>
       </c>
       <c r="G4" t="n">
         <v>26386.18069453981</v>
@@ -26444,7 +26444,7 @@
         <v>26386.18069453981</v>
       </c>
       <c r="K4" t="n">
-        <v>26386.18069453982</v>
+        <v>26386.18069453981</v>
       </c>
       <c r="L4" t="n">
         <v>26386.18069453981</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36922.77879560999</v>
+        <v>50304.05548636943</v>
       </c>
       <c r="C5" t="n">
-        <v>36922.77879560999</v>
+        <v>50304.05548636943</v>
       </c>
       <c r="D5" t="n">
-        <v>36922.77879560999</v>
+        <v>50304.05548636943</v>
       </c>
       <c r="E5" t="n">
-        <v>3295.178795609984</v>
+        <v>16676.45548636943</v>
       </c>
       <c r="F5" t="n">
-        <v>3295.178795609984</v>
+        <v>16676.45548636943</v>
       </c>
       <c r="G5" t="n">
         <v>16676.45548636943</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5361.217674313448</v>
+        <v>-67733.04707437695</v>
       </c>
       <c r="C6" t="n">
-        <v>23523.88549538587</v>
+        <v>24185.76529336285</v>
       </c>
       <c r="D6" t="n">
-        <v>23523.8854953859</v>
+        <v>24185.76529336283</v>
       </c>
       <c r="E6" t="n">
-        <v>57151.48549538589</v>
+        <v>57813.36529336283</v>
       </c>
       <c r="F6" t="n">
-        <v>57151.4854953859</v>
+        <v>57813.36529336287</v>
       </c>
       <c r="G6" t="n">
-        <v>9180.007116177876</v>
+        <v>57813.36529336287</v>
       </c>
       <c r="H6" t="n">
-        <v>69502.49431661874</v>
+        <v>57813.36529336286</v>
       </c>
       <c r="I6" t="n">
-        <v>69502.49431661874</v>
+        <v>57813.36529336283</v>
       </c>
       <c r="J6" t="n">
-        <v>55322.16930348422</v>
+        <v>-13951.3471947234</v>
       </c>
       <c r="K6" t="n">
-        <v>69502.49431661874</v>
+        <v>57813.36529336284</v>
       </c>
       <c r="L6" t="n">
-        <v>69502.49431661874</v>
+        <v>57813.36529336283</v>
       </c>
       <c r="M6" t="n">
-        <v>69502.49431661874</v>
+        <v>57813.3652933628</v>
       </c>
       <c r="N6" t="n">
-        <v>69502.4943166187</v>
+        <v>57813.36529336287</v>
       </c>
       <c r="O6" t="n">
-        <v>16538.38877536953</v>
+        <v>57813.36529336283</v>
       </c>
       <c r="P6" t="n">
-        <v>69502.49431661874</v>
+        <v>57813.36529336284</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G4" t="n">
         <v>274.2838073416025</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>220.0867876769646</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>220.0867876769646</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>220.0867876769646</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>54.19701966463789</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M2" t="n">
-        <v>54.19701966463789</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N2" t="n">
-        <v>47.94769843361666</v>
+        <v>231.1630643817873</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P2" t="n">
-        <v>54.19701966463789</v>
+        <v>109.2184856369541</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N3" t="n">
-        <v>44.53925033830414</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O3" t="n">
-        <v>54.19701966463789</v>
+        <v>138.7855675718737</v>
       </c>
       <c r="P3" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>122.5236243051552</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M5" t="n">
-        <v>47.94769843361666</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N5" t="n">
-        <v>54.19701966463789</v>
+        <v>231.1630643817873</v>
       </c>
       <c r="O5" t="n">
-        <v>54.19701966463789</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P5" t="n">
-        <v>54.19701966463789</v>
+        <v>109.2184856369541</v>
       </c>
       <c r="Q5" t="n">
         <v>4.059542658712616</v>
@@ -35020,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O6" t="n">
-        <v>54.19701966463789</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P6" t="n">
-        <v>44.53925033830414</v>
+        <v>8.848537350489996</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>54.19701966463789</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L8" t="n">
-        <v>54.19701966463789</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>231.1630643817873</v>
       </c>
       <c r="O8" t="n">
-        <v>47.94769843361666</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P8" t="n">
-        <v>54.19701966463789</v>
+        <v>109.2184856369541</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>258.6093926083634</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O9" t="n">
-        <v>44.53925033830414</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.19701966463789</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M11" t="n">
-        <v>54.19701966463789</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N11" t="n">
-        <v>47.94769843361666</v>
+        <v>231.1630643817873</v>
       </c>
       <c r="O11" t="n">
-        <v>54.19701966463789</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P11" t="n">
-        <v>54.19701966463789</v>
+        <v>109.2184856369541</v>
       </c>
       <c r="Q11" t="n">
         <v>4.059542658712616</v>
@@ -35491,25 +35491,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K12" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>44.53925033830414</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O12" t="n">
-        <v>54.19701966463789</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P12" t="n">
-        <v>54.19701966463789</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>58.85574402414757</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L14" t="n">
-        <v>54.19701966463789</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M14" t="n">
-        <v>54.19701966463789</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N14" t="n">
-        <v>54.19701966463789</v>
+        <v>231.1630643817873</v>
       </c>
       <c r="O14" t="n">
-        <v>52.00724109232928</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>109.2184856369541</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>54.19701966463789</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M15" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O15" t="n">
-        <v>54.19701966463789</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P15" t="n">
-        <v>44.53925033830414</v>
+        <v>8.848537350489996</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>58.85574402414761</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M18" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2838073416025</v>
+        <v>271.1434367385833</v>
       </c>
       <c r="O18" t="n">
-        <v>270.5854737144654</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>122.5236243051553</v>
+        <v>122.5236243051552</v>
       </c>
       <c r="L20" t="n">
         <v>204.4954085367308</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M21" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>258.6093926083634</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="O21" t="n">
         <v>270.5854737144654</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L24" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2838073416025</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="N24" t="n">
-        <v>208.6021859347056</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q24" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K27" t="n">
         <v>140.6484434930818</v>
@@ -36682,19 +36682,19 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N27" t="n">
-        <v>141.6613176266638</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O27" t="n">
-        <v>270.5854737144654</v>
+        <v>138.7855675718737</v>
       </c>
       <c r="P27" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K30" t="n">
         <v>140.6484434930818</v>
@@ -36919,10 +36919,10 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="N30" t="n">
-        <v>223.6594671380758</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>270.5854737144654</v>
@@ -36931,7 +36931,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37156,7 +37156,7 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M33" t="n">
-        <v>0.5579630241179461</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N33" t="n">
         <v>274.2838073416025</v>
@@ -37165,10 +37165,10 @@
         <v>270.5854737144654</v>
       </c>
       <c r="P33" t="n">
-        <v>200.5762321565626</v>
+        <v>8.848537350489996</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>117.9609491152816</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M36" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O36" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P36" t="n">
-        <v>200.5762321565626</v>
+        <v>16.31652810451531</v>
       </c>
       <c r="Q36" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q38" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L39" t="n">
         <v>250.5834388302202</v>
@@ -37633,13 +37633,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N39" t="n">
-        <v>271.1434367385833</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>200.5762321565626</v>
+        <v>56.78741806046166</v>
       </c>
       <c r="Q39" t="n">
         <v>81.99814951141209</v>
@@ -37867,10 +37867,10 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M42" t="n">
-        <v>216.1914763840507</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="O42" t="n">
         <v>270.5854737144654</v>
@@ -37879,7 +37879,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M45" t="n">
-        <v>274.2838073416025</v>
+        <v>216.1914763840507</v>
       </c>
       <c r="N45" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>138.7855675718737</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
